--- a/data/processed/Cleaned_Japan_Life_Expectancy.xlsx
+++ b/data/processed/Cleaned_Japan_Life_Expectancy.xlsx
@@ -562,10 +562,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2496333374177621</v>
+        <v>84.65000000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2901618929016188</v>
+        <v>224.4</v>
       </c>
       <c r="D2" t="n">
         <v>13.6</v>
@@ -638,10 +638,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.47813712464157</v>
+        <v>83.79000000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4034869240348691</v>
+        <v>242.6</v>
       </c>
       <c r="D3" t="n">
         <v>11.3</v>
@@ -714,10 +714,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-3.46708219143082</v>
+        <v>82.8</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2160647571606475</v>
+        <v>212.5</v>
       </c>
       <c r="D4" t="n">
         <v>11.4</v>
@@ -790,10 +790,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.09190268415210942</v>
+        <v>84.48</v>
       </c>
       <c r="C5" t="n">
-        <v>0.174346201743462</v>
+        <v>205.8</v>
       </c>
       <c r="D5" t="n">
         <v>14.7</v>
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.5740711851919414</v>
+        <v>84.23999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6158156911581567</v>
+        <v>276.7</v>
       </c>
       <c r="D6" t="n">
         <v>14.2</v>
@@ -942,10 +942,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7719825468775421</v>
+        <v>84.91</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4987546699875465</v>
+        <v>257.9</v>
       </c>
       <c r="D7" t="n">
         <v>12.9</v>
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0286394411078486</v>
+        <v>84.54000000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8225404732254047</v>
+        <v>309.9</v>
       </c>
       <c r="D8" t="n">
         <v>14.2</v>
@@ -1094,10 +1094,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1.638859958321533</v>
+        <v>83.70999999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1737235367372352</v>
+        <v>205.7</v>
       </c>
       <c r="D9" t="n">
         <v>11.6</v>
@@ -1170,10 +1170,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3701754626776916</v>
+        <v>84.70999999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2907845579078454</v>
+        <v>224.5</v>
       </c>
       <c r="D10" t="n">
         <v>13.4</v>
@@ -1246,10 +1246,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.734794018871876</v>
+        <v>84.16</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3486924034869241</v>
+        <v>233.8</v>
       </c>
       <c r="D11" t="n">
         <v>14.7</v>
@@ -1322,10 +1322,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.073337860027437</v>
+        <v>85.06</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5560398505603985</v>
+        <v>267.1</v>
       </c>
       <c r="D12" t="n">
         <v>16.1</v>
@@ -1398,10 +1398,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.056239686231745</v>
+        <v>84</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4576587795765878</v>
+        <v>251.3</v>
       </c>
       <c r="D13" t="n">
         <v>14.1</v>
@@ -1474,10 +1474,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.5710790047776311</v>
+        <v>84.81</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5498132004981322</v>
+        <v>266.1</v>
       </c>
       <c r="D14" t="n">
         <v>13.7</v>
@@ -1550,10 +1550,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.21696251991168</v>
+        <v>83.92</v>
       </c>
       <c r="C15" t="n">
-        <v>0.09962640099626396</v>
+        <v>193.8</v>
       </c>
       <c r="D15" t="n">
         <v>12.7</v>
@@ -1626,10 +1626,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.073337860027437</v>
+        <v>85.06</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7085927770859279</v>
+        <v>291.6</v>
       </c>
       <c r="D16" t="n">
         <v>14.7</v>
@@ -1702,10 +1702,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.35759499938164</v>
+        <v>83.84999999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1836861768368616</v>
+        <v>207.3</v>
       </c>
       <c r="D17" t="n">
         <v>12.7</v>
@@ -1778,10 +1778,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.1491815663677781</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6986301369863013</v>
+        <v>290</v>
       </c>
       <c r="D18" t="n">
         <v>14.3</v>
@@ -1854,10 +1854,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.5740711851919414</v>
+        <v>84.23999999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>0.658779576587796</v>
+        <v>283.6</v>
       </c>
       <c r="D19" t="n">
         <v>14.4</v>
@@ -1930,10 +1930,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.8925246721375001</v>
+        <v>84.97</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2814445828144456</v>
+        <v>223</v>
       </c>
       <c r="D20" t="n">
         <v>15.1</v>
@@ -2006,10 +2006,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.413348351512007</v>
+        <v>84.31999999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8978829389788294</v>
+        <v>322</v>
       </c>
       <c r="D21" t="n">
         <v>12.9</v>
@@ -2082,10 +2082,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.093428214237411</v>
+        <v>85.06999999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>0.742216687422167</v>
+        <v>297</v>
       </c>
       <c r="D22" t="n">
         <v>12.8</v>
@@ -2158,10 +2158,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.455054590017285</v>
+        <v>85.25</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9638854296388546</v>
+        <v>332.6</v>
       </c>
       <c r="D23" t="n">
         <v>13.3</v>
@@ -2234,10 +2234,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.2295429832077596</v>
+        <v>84.64</v>
       </c>
       <c r="C24" t="n">
-        <v>0.3349937733499375</v>
+        <v>231.6</v>
       </c>
       <c r="D24" t="n">
         <v>12.2</v>
@@ -2310,10 +2310,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.1692719205777806</v>
+        <v>84.61</v>
       </c>
       <c r="C25" t="n">
-        <v>0.4265255292652552</v>
+        <v>246.3</v>
       </c>
       <c r="D25" t="n">
         <v>12.2</v>
@@ -2386,10 +2386,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.2928062262520489</v>
+        <v>84.38</v>
       </c>
       <c r="C26" t="n">
-        <v>0.483810709838107</v>
+        <v>255.5</v>
       </c>
       <c r="D26" t="n">
         <v>12.2</v>
@@ -2462,10 +2462,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.87695202842711</v>
+        <v>85.45999999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4109589041095891</v>
+        <v>243.8</v>
       </c>
       <c r="D27" t="n">
         <v>16.9</v>
@@ -2538,10 +2538,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.6343422478219205</v>
+        <v>84.20999999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>0.8798256537982567</v>
+        <v>319.1</v>
       </c>
       <c r="D28" t="n">
         <v>12.3</v>
@@ -2614,10 +2614,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.314422110547353</v>
+        <v>85.18000000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>0.6183063511830635</v>
+        <v>277.1</v>
       </c>
       <c r="D29" t="n">
         <v>15.2</v>
@@ -2690,10 +2690,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.1923544552020649</v>
+        <v>84.43000000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1650062266500623</v>
+        <v>204.3</v>
       </c>
       <c r="D30" t="n">
         <v>13.6</v>
@@ -2766,10 +2766,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.7719825468775421</v>
+        <v>84.91</v>
       </c>
       <c r="C31" t="n">
-        <v>0.6805728518057286</v>
+        <v>287.1</v>
       </c>
       <c r="D31" t="n">
         <v>13.5</v>
@@ -2842,10 +2842,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.15369927686739</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>0.8860523038605232</v>
+        <v>320.1</v>
       </c>
       <c r="D32" t="n">
         <v>13.9</v>
@@ -2918,10 +2918,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.433438705721981</v>
+        <v>84.31</v>
       </c>
       <c r="C33" t="n">
-        <v>0.4943960149439601</v>
+        <v>257.2</v>
       </c>
       <c r="D33" t="n">
         <v>13.9</v>
@@ -2994,10 +2994,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.875426498341808</v>
+        <v>84.09</v>
       </c>
       <c r="C34" t="n">
-        <v>0.6718555417185554</v>
+        <v>285.7</v>
       </c>
       <c r="D34" t="n">
         <v>13.2</v>
@@ -3070,10 +3070,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.1491815663677781</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.7004981320049815</v>
+        <v>290.3</v>
       </c>
       <c r="D35" t="n">
         <v>13.1</v>
@@ -3146,10 +3146,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.2928062262520489</v>
+        <v>84.38</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>177.8</v>
       </c>
       <c r="D36" t="n">
         <v>15.1</v>
@@ -3222,10 +3222,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.957313445267091</v>
+        <v>85.5</v>
       </c>
       <c r="C37" t="n">
-        <v>0.3642590286425902</v>
+        <v>236.3</v>
       </c>
       <c r="D37" t="n">
         <v>14.9</v>
@@ -3298,10 +3298,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.7920729010875446</v>
+        <v>84.92</v>
       </c>
       <c r="C38" t="n">
-        <v>0.7428393524283936</v>
+        <v>297.1</v>
       </c>
       <c r="D38" t="n">
         <v>12.9</v>
@@ -3374,10 +3374,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.0286394411078486</v>
+        <v>84.54000000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>0.2590286425902864</v>
+        <v>219.4</v>
       </c>
       <c r="D39" t="n">
         <v>13.9</v>
@@ -3450,10 +3450,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-1.1566914572817</v>
+        <v>83.95</v>
       </c>
       <c r="C40" t="n">
-        <v>0.3679950186799501</v>
+        <v>236.9</v>
       </c>
       <c r="D40" t="n">
         <v>13.2</v>
@@ -3526,10 +3526,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-0.353077288882028</v>
+        <v>84.34999999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>338.4</v>
       </c>
       <c r="D41" t="n">
         <v>13.1</v>
@@ -3602,10 +3602,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.5911693589876051</v>
+        <v>84.81999999999999</v>
       </c>
       <c r="C42" t="n">
-        <v>0.8910336239103362</v>
+        <v>320.9</v>
       </c>
       <c r="D42" t="n">
         <v>12.8</v>
@@ -3678,10 +3678,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.2094526289977571</v>
+        <v>84.63</v>
       </c>
       <c r="C43" t="n">
-        <v>0.8530510585305107</v>
+        <v>314.8</v>
       </c>
       <c r="D43" t="n">
         <v>13.4</v>
@@ -3754,10 +3754,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.6715307758275866</v>
+        <v>84.86</v>
       </c>
       <c r="C44" t="n">
-        <v>0.521170610211706</v>
+        <v>261.5</v>
       </c>
       <c r="D44" t="n">
         <v>15.7</v>
@@ -3830,10 +3830,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-0.6544326020318945</v>
+        <v>84.2</v>
       </c>
       <c r="C45" t="n">
-        <v>0.8094645080946452</v>
+        <v>307.8</v>
       </c>
       <c r="D45" t="n">
         <v>12.9</v>
@@ -3906,10 +3906,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-0.2727158720420464</v>
+        <v>84.39</v>
       </c>
       <c r="C46" t="n">
-        <v>0.3200498132004981</v>
+        <v>229.2</v>
       </c>
       <c r="D46" t="n">
         <v>12.2</v>
@@ -3982,10 +3982,10 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-0.49370976835196</v>
+        <v>84.28</v>
       </c>
       <c r="C47" t="n">
-        <v>0.5124533001245331</v>
+        <v>260.1</v>
       </c>
       <c r="D47" t="n">
         <v>13.5</v>
@@ -4058,10 +4058,10 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.6112597131976076</v>
+        <v>84.83</v>
       </c>
       <c r="C48" t="n">
-        <v>0.4501867995018678</v>
+        <v>250.1</v>
       </c>
       <c r="D48" t="n">
         <v>15.9</v>

--- a/data/processed/Cleaned_Japan_Life_Expectancy.xlsx
+++ b/data/processed/Cleaned_Japan_Life_Expectancy.xlsx
@@ -511,7 +511,7 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Income_Person</t>
+          <t>Income_capita</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
@@ -565,67 +565,67 @@
         <v>84.65000000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>224.4</v>
+        <v>0.2901618929016188</v>
       </c>
       <c r="D2" t="n">
-        <v>13.6</v>
+        <v>0.4107142857142856</v>
       </c>
       <c r="E2" t="n">
-        <v>23.7</v>
+        <v>0.601010101010101</v>
       </c>
       <c r="F2" t="n">
-        <v>13.7</v>
+        <v>0.1510791366906475</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H2" t="n">
-        <v>164.3</v>
+        <v>0.0371198568872988</v>
       </c>
       <c r="I2" t="n">
-        <v>845.4</v>
+        <v>0.1509554820113164</v>
       </c>
       <c r="J2" t="n">
-        <v>171.5</v>
+        <v>0.07142857142857295</v>
       </c>
       <c r="K2" t="n">
-        <v>319.45</v>
+        <v>0.5252729478366356</v>
       </c>
       <c r="L2" t="n">
-        <v>12.9</v>
+        <v>0.4451219512195123</v>
       </c>
       <c r="M2" t="n">
-        <v>234.5</v>
+        <v>0.1226025734401553</v>
       </c>
       <c r="N2" t="n">
-        <v>17.2</v>
+        <v>0.3871951219512195</v>
       </c>
       <c r="O2" t="n">
-        <v>42.1</v>
+        <v>0.2284644194756554</v>
       </c>
       <c r="P2" t="n">
-        <v>3728</v>
+        <v>0.4421296296296297</v>
       </c>
       <c r="Q2" t="n">
-        <v>2517.7</v>
+        <v>0.2372162478870903</v>
       </c>
       <c r="R2" t="n">
-        <v>3.8</v>
+        <v>0.05384615384615382</v>
       </c>
       <c r="S2" t="n">
-        <v>758.7</v>
+        <v>0.05946063822054226</v>
       </c>
       <c r="T2" t="n">
-        <v>3.7</v>
+        <v>0.1222222222222222</v>
       </c>
       <c r="U2" t="n">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>21.41</v>
+        <v>0.4673629242819843</v>
       </c>
       <c r="W2" t="n">
-        <v>16.53</v>
+        <v>0.4897637795275591</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -641,67 +641,67 @@
         <v>83.79000000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>242.6</v>
+        <v>0.4034869240348691</v>
       </c>
       <c r="D3" t="n">
-        <v>11.3</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>11.9</v>
+        <v>0.005050505050504972</v>
       </c>
       <c r="F3" t="n">
-        <v>34</v>
+        <v>0.6378896882494005</v>
       </c>
       <c r="G3" t="n">
-        <v>1.7</v>
+        <v>0.7000000000000002</v>
       </c>
       <c r="H3" t="n">
-        <v>404.6</v>
+        <v>0.5744633273703041</v>
       </c>
       <c r="I3" t="n">
-        <v>1105.5</v>
+        <v>0.4286324330095014</v>
       </c>
       <c r="J3" t="n">
-        <v>173</v>
+        <v>0.2857142857142847</v>
       </c>
       <c r="K3" t="n">
-        <v>257.3</v>
+        <v>0.02264456126162528</v>
       </c>
       <c r="L3" t="n">
-        <v>19</v>
+        <v>0.8170731707317074</v>
       </c>
       <c r="M3" t="n">
-        <v>877.2</v>
+        <v>0.9027676620538967</v>
       </c>
       <c r="N3" t="n">
-        <v>10.6</v>
+        <v>0.1859756097560976</v>
       </c>
       <c r="O3" t="n">
-        <v>70.3</v>
+        <v>0.7565543071161048</v>
       </c>
       <c r="P3" t="n">
-        <v>2697</v>
+        <v>0.1011904761904762</v>
       </c>
       <c r="Q3" t="n">
-        <v>296.8</v>
+        <v>0.006906492725368401</v>
       </c>
       <c r="R3" t="n">
-        <v>5.2</v>
+        <v>0.1615384615384615</v>
       </c>
       <c r="S3" t="n">
-        <v>1168.5</v>
+        <v>0.35734535145744</v>
       </c>
       <c r="T3" t="n">
-        <v>9</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="U3" t="n">
-        <v>3.24</v>
+        <v>0.2957393483709274</v>
       </c>
       <c r="V3" t="n">
-        <v>17.93</v>
+        <v>0.164490861618799</v>
       </c>
       <c r="W3" t="n">
-        <v>13.5</v>
+        <v>0.2511811023622046</v>
       </c>
       <c r="X3" t="n">
         <v>1</v>
@@ -717,67 +717,67 @@
         <v>82.8</v>
       </c>
       <c r="C4" t="n">
-        <v>212.5</v>
+        <v>0.2160647571606475</v>
       </c>
       <c r="D4" t="n">
-        <v>11.4</v>
+        <v>0.01785714285714279</v>
       </c>
       <c r="E4" t="n">
-        <v>11.8</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>42.9</v>
+        <v>0.8513189448441247</v>
       </c>
       <c r="G4" t="n">
-        <v>1.4</v>
+        <v>0.55</v>
       </c>
       <c r="H4" t="n">
-        <v>348.7</v>
+        <v>0.4494633273703041</v>
       </c>
       <c r="I4" t="n">
-        <v>1108.8</v>
+        <v>0.4321554393082095</v>
       </c>
       <c r="J4" t="n">
-        <v>174.5</v>
+        <v>0.5</v>
       </c>
       <c r="K4" t="n">
-        <v>254.5</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>554.4</v>
+        <v>0.510924981791697</v>
       </c>
       <c r="N4" t="n">
-        <v>11.8</v>
+        <v>0.2225609756097561</v>
       </c>
       <c r="O4" t="n">
-        <v>63.6</v>
+        <v>0.6310861423220974</v>
       </c>
       <c r="P4" t="n">
-        <v>2507</v>
+        <v>0.03835978835978837</v>
       </c>
       <c r="Q4" t="n">
-        <v>380.5</v>
+        <v>0.01558627412346653</v>
       </c>
       <c r="R4" t="n">
-        <v>6.2</v>
+        <v>0.2384615384615384</v>
       </c>
       <c r="S4" t="n">
-        <v>1112.8</v>
+        <v>0.3168568728647234</v>
       </c>
       <c r="T4" t="n">
-        <v>9.1</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="U4" t="n">
-        <v>3.4</v>
+        <v>0.3358395989974937</v>
       </c>
       <c r="V4" t="n">
-        <v>20.98</v>
+        <v>0.4299390774586598</v>
       </c>
       <c r="W4" t="n">
-        <v>15.92</v>
+        <v>0.4417322834645669</v>
       </c>
       <c r="X4" t="n">
         <v>2</v>
@@ -793,67 +793,67 @@
         <v>84.48</v>
       </c>
       <c r="C5" t="n">
-        <v>205.8</v>
+        <v>0.174346201743462</v>
       </c>
       <c r="D5" t="n">
-        <v>14.7</v>
+        <v>0.6071428571428572</v>
       </c>
       <c r="E5" t="n">
-        <v>24.9</v>
+        <v>0.6616161616161615</v>
       </c>
       <c r="F5" t="n">
-        <v>16.1</v>
+        <v>0.2086330935251799</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H5" t="n">
-        <v>195.8</v>
+        <v>0.1075581395348837</v>
       </c>
       <c r="I5" t="n">
-        <v>749.1</v>
+        <v>0.04814775274901251</v>
       </c>
       <c r="J5" t="n">
-        <v>173.5</v>
+        <v>0.3571428571428577</v>
       </c>
       <c r="K5" t="n">
-        <v>314.95</v>
+        <v>0.4888799029518802</v>
       </c>
       <c r="L5" t="n">
-        <v>9.6</v>
+        <v>0.2439024390243903</v>
       </c>
       <c r="M5" t="n">
-        <v>246.1</v>
+        <v>0.1366836610827871</v>
       </c>
       <c r="N5" t="n">
-        <v>5.5</v>
+        <v>0.03048780487804878</v>
       </c>
       <c r="O5" t="n">
-        <v>30.1</v>
+        <v>0.003745318352059934</v>
       </c>
       <c r="P5" t="n">
-        <v>3116</v>
+        <v>0.2397486772486773</v>
       </c>
       <c r="Q5" t="n">
-        <v>1778.4</v>
+        <v>0.1605500305918222</v>
       </c>
       <c r="R5" t="n">
-        <v>4.1</v>
+        <v>0.07692307692307687</v>
       </c>
       <c r="S5" t="n">
-        <v>806.2</v>
+        <v>0.09398851493784988</v>
       </c>
       <c r="T5" t="n">
-        <v>4.2</v>
+        <v>0.1777777777777778</v>
       </c>
       <c r="U5" t="n">
-        <v>3.53</v>
+        <v>0.368421052631579</v>
       </c>
       <c r="V5" t="n">
-        <v>25.44</v>
+        <v>0.8181026979982593</v>
       </c>
       <c r="W5" t="n">
-        <v>18.24</v>
+        <v>0.6244094488188974</v>
       </c>
       <c r="X5" t="n">
         <v>3</v>
@@ -869,67 +869,67 @@
         <v>84.23999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>276.7</v>
+        <v>0.6158156911581567</v>
       </c>
       <c r="D6" t="n">
-        <v>14.2</v>
+        <v>0.5178571428571428</v>
       </c>
       <c r="E6" t="n">
-        <v>18</v>
+        <v>0.313131313131313</v>
       </c>
       <c r="F6" t="n">
-        <v>17.4</v>
+        <v>0.2398081534772182</v>
       </c>
       <c r="G6" t="n">
+        <v>0.3500000000000001</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.4069767441860465</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.6122557916088395</v>
+      </c>
+      <c r="J6" t="n">
         <v>1</v>
       </c>
-      <c r="H6" t="n">
-        <v>329.7</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1277.5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>178</v>
-      </c>
       <c r="K6" t="n">
-        <v>272.5</v>
+        <v>0.1455721795390215</v>
       </c>
       <c r="L6" t="n">
-        <v>15.2</v>
+        <v>0.5853658536585367</v>
       </c>
       <c r="M6" t="n">
-        <v>482.7</v>
+        <v>0.4238892935178442</v>
       </c>
       <c r="N6" t="n">
-        <v>7.2</v>
+        <v>0.08231707317073172</v>
       </c>
       <c r="O6" t="n">
-        <v>70.5</v>
+        <v>0.7602996254681648</v>
       </c>
       <c r="P6" t="n">
-        <v>2658</v>
+        <v>0.08829365079365081</v>
       </c>
       <c r="Q6" t="n">
-        <v>801.2</v>
+        <v>0.05921332351629664</v>
       </c>
       <c r="R6" t="n">
-        <v>9.1</v>
+        <v>0.4615384615384614</v>
       </c>
       <c r="S6" t="n">
-        <v>1274.2</v>
+        <v>0.434178963436796</v>
       </c>
       <c r="T6" t="n">
-        <v>7.1</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="U6" t="n">
-        <v>4.82</v>
+        <v>0.6917293233082709</v>
       </c>
       <c r="V6" t="n">
-        <v>20.47</v>
+        <v>0.3855526544821584</v>
       </c>
       <c r="W6" t="n">
-        <v>15.6</v>
+        <v>0.4165354330708662</v>
       </c>
       <c r="X6" t="n">
         <v>4</v>
@@ -945,67 +945,67 @@
         <v>84.91</v>
       </c>
       <c r="C7" t="n">
-        <v>257.9</v>
+        <v>0.4987546699875465</v>
       </c>
       <c r="D7" t="n">
-        <v>12.9</v>
+        <v>0.2857142857142856</v>
       </c>
       <c r="E7" t="n">
-        <v>18.8</v>
+        <v>0.3535353535353535</v>
       </c>
       <c r="F7" t="n">
-        <v>22.8</v>
+        <v>0.3693045563549161</v>
       </c>
       <c r="G7" t="n">
-        <v>1.3</v>
+        <v>0.5000000000000001</v>
       </c>
       <c r="H7" t="n">
-        <v>284.1</v>
+        <v>0.3050089445438283</v>
       </c>
       <c r="I7" t="n">
-        <v>1124.5</v>
+        <v>0.4489164086687306</v>
       </c>
       <c r="J7" t="n">
-        <v>173</v>
+        <v>0.2857142857142847</v>
       </c>
       <c r="K7" t="n">
-        <v>286.05</v>
+        <v>0.2551556813586737</v>
       </c>
       <c r="L7" t="n">
-        <v>16.4</v>
+        <v>0.6585365853658536</v>
       </c>
       <c r="M7" t="n">
-        <v>626.8</v>
+        <v>0.5988103908715707</v>
       </c>
       <c r="N7" t="n">
-        <v>14.8</v>
+        <v>0.3140243902439025</v>
       </c>
       <c r="O7" t="n">
-        <v>73.90000000000001</v>
+        <v>0.8239700374531836</v>
       </c>
       <c r="P7" t="n">
-        <v>3280</v>
+        <v>0.2939814814814815</v>
       </c>
       <c r="Q7" t="n">
-        <v>711.9</v>
+        <v>0.04995281600315252</v>
       </c>
       <c r="R7" t="n">
-        <v>7.4</v>
+        <v>0.3307692307692308</v>
       </c>
       <c r="S7" t="n">
-        <v>1148.3</v>
+        <v>0.3426619175692375</v>
       </c>
       <c r="T7" t="n">
-        <v>7.3</v>
+        <v>0.5222222222222221</v>
       </c>
       <c r="U7" t="n">
-        <v>2.4</v>
+        <v>0.08521303258145363</v>
       </c>
       <c r="V7" t="n">
-        <v>20.51</v>
+        <v>0.389033942558747</v>
       </c>
       <c r="W7" t="n">
-        <v>12.38</v>
+        <v>0.1629921259842519</v>
       </c>
       <c r="X7" t="n">
         <v>5</v>
@@ -1021,67 +1021,67 @@
         <v>84.54000000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>309.9</v>
+        <v>0.8225404732254047</v>
       </c>
       <c r="D8" t="n">
-        <v>14.2</v>
+        <v>0.5178571428571428</v>
       </c>
       <c r="E8" t="n">
-        <v>20.4</v>
+        <v>0.4343434343434343</v>
       </c>
       <c r="F8" t="n">
-        <v>8.9</v>
+        <v>0.03597122302158273</v>
       </c>
       <c r="G8" t="n">
-        <v>1.2</v>
+        <v>0.4500000000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>407</v>
+        <v>0.5798300536672629</v>
       </c>
       <c r="I8" t="n">
-        <v>1333.7</v>
+        <v>0.672253656453507</v>
       </c>
       <c r="J8" t="n">
-        <v>172.5</v>
+        <v>0.2142857142857153</v>
       </c>
       <c r="K8" t="n">
-        <v>293.7</v>
+        <v>0.3170238576627575</v>
       </c>
       <c r="L8" t="n">
-        <v>10.4</v>
+        <v>0.2926829268292684</v>
       </c>
       <c r="M8" t="n">
-        <v>260.4</v>
+        <v>0.1540422432629279</v>
       </c>
       <c r="N8" t="n">
-        <v>17.7</v>
+        <v>0.4024390243902439</v>
       </c>
       <c r="O8" t="n">
-        <v>44.5</v>
+        <v>0.2734082397003745</v>
       </c>
       <c r="P8" t="n">
-        <v>2885</v>
+        <v>0.1633597883597884</v>
       </c>
       <c r="Q8" t="n">
-        <v>1858.3</v>
+        <v>0.1688357478404248</v>
       </c>
       <c r="R8" t="n">
-        <v>7.7</v>
+        <v>0.3538461538461538</v>
       </c>
       <c r="S8" t="n">
-        <v>1328.3</v>
+        <v>0.4735043977611398</v>
       </c>
       <c r="T8" t="n">
-        <v>3.8</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="U8" t="n">
-        <v>2.54</v>
+        <v>0.1203007518796992</v>
       </c>
       <c r="V8" t="n">
-        <v>18.82</v>
+        <v>0.2419495213228895</v>
       </c>
       <c r="W8" t="n">
-        <v>21.51</v>
+        <v>0.8818897637795275</v>
       </c>
       <c r="X8" t="n">
         <v>6</v>
@@ -1097,67 +1097,67 @@
         <v>83.70999999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>205.7</v>
+        <v>0.1737235367372352</v>
       </c>
       <c r="D9" t="n">
-        <v>11.6</v>
+        <v>0.05357142857142838</v>
       </c>
       <c r="E9" t="n">
-        <v>13.1</v>
+        <v>0.06565656565656552</v>
       </c>
       <c r="F9" t="n">
-        <v>20.6</v>
+        <v>0.3165467625899281</v>
       </c>
       <c r="G9" t="n">
-        <v>1.3</v>
+        <v>0.5000000000000001</v>
       </c>
       <c r="H9" t="n">
-        <v>339.8</v>
+        <v>0.4295617173524151</v>
       </c>
       <c r="I9" t="n">
-        <v>994.7</v>
+        <v>0.310344827586207</v>
       </c>
       <c r="J9" t="n">
-        <v>173</v>
+        <v>0.2857142857142847</v>
       </c>
       <c r="K9" t="n">
-        <v>275.9</v>
+        <v>0.1730691467852807</v>
       </c>
       <c r="L9" t="n">
-        <v>16.9</v>
+        <v>0.6890243902439024</v>
       </c>
       <c r="M9" t="n">
-        <v>737.8</v>
+        <v>0.7335518329691673</v>
       </c>
       <c r="N9" t="n">
-        <v>13</v>
+        <v>0.2591463414634146</v>
       </c>
       <c r="O9" t="n">
-        <v>68</v>
+        <v>0.7134831460674157</v>
       </c>
       <c r="P9" t="n">
-        <v>2943</v>
+        <v>0.1825396825396826</v>
       </c>
       <c r="Q9" t="n">
-        <v>433.3</v>
+        <v>0.02106169177961444</v>
       </c>
       <c r="R9" t="n">
-        <v>5.6</v>
+        <v>0.1923076923076922</v>
       </c>
       <c r="S9" t="n">
-        <v>1033.2</v>
+        <v>0.2589954205131934</v>
       </c>
       <c r="T9" t="n">
-        <v>7.4</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="U9" t="n">
-        <v>3.09</v>
+        <v>0.2581453634085213</v>
       </c>
       <c r="V9" t="n">
-        <v>17.63</v>
+        <v>0.1383812010443863</v>
       </c>
       <c r="W9" t="n">
-        <v>18.81</v>
+        <v>0.6692913385826771</v>
       </c>
       <c r="X9" t="n">
         <v>7</v>
@@ -1173,67 +1173,67 @@
         <v>84.70999999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>224.5</v>
+        <v>0.2907845579078454</v>
       </c>
       <c r="D10" t="n">
-        <v>13.4</v>
+        <v>0.375</v>
       </c>
       <c r="E10" t="n">
-        <v>18.5</v>
+        <v>0.3383838383838383</v>
       </c>
       <c r="F10" t="n">
-        <v>24.7</v>
+        <v>0.4148681055155875</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6</v>
+        <v>0.15</v>
       </c>
       <c r="H10" t="n">
-        <v>195.2</v>
+        <v>0.106216457960644</v>
       </c>
       <c r="I10" t="n">
-        <v>942.7</v>
+        <v>0.2548307889398954</v>
       </c>
       <c r="J10" t="n">
-        <v>175</v>
+        <v>0.571428571428573</v>
       </c>
       <c r="K10" t="n">
-        <v>293.65</v>
+        <v>0.3166194904973714</v>
       </c>
       <c r="L10" t="n">
-        <v>16.6</v>
+        <v>0.6707317073170733</v>
       </c>
       <c r="M10" t="n">
-        <v>535.2</v>
+        <v>0.4876183539694101</v>
       </c>
       <c r="N10" t="n">
-        <v>18.4</v>
+        <v>0.4237804878048781</v>
       </c>
       <c r="O10" t="n">
-        <v>79</v>
+        <v>0.9194756554307116</v>
       </c>
       <c r="P10" t="n">
-        <v>2919</v>
+        <v>0.1746031746031745</v>
       </c>
       <c r="Q10" t="n">
-        <v>895.1</v>
+        <v>0.06895085605251425</v>
       </c>
       <c r="R10" t="n">
-        <v>4.3</v>
+        <v>0.09230769230769226</v>
       </c>
       <c r="S10" t="n">
-        <v>834.1</v>
+        <v>0.1142690993675947</v>
       </c>
       <c r="T10" t="n">
-        <v>7.5</v>
+        <v>0.5444444444444444</v>
       </c>
       <c r="U10" t="n">
-        <v>3.18</v>
+        <v>0.280701754385965</v>
       </c>
       <c r="V10" t="n">
-        <v>24.82</v>
+        <v>0.7641427328111403</v>
       </c>
       <c r="W10" t="n">
-        <v>15.29</v>
+        <v>0.3921259842519684</v>
       </c>
       <c r="X10" t="n">
         <v>8</v>
@@ -1249,67 +1249,67 @@
         <v>84.16</v>
       </c>
       <c r="C11" t="n">
-        <v>233.8</v>
+        <v>0.3486924034869241</v>
       </c>
       <c r="D11" t="n">
-        <v>14.7</v>
+        <v>0.6071428571428572</v>
       </c>
       <c r="E11" t="n">
-        <v>17.5</v>
+        <v>0.2878787878787878</v>
       </c>
       <c r="F11" t="n">
-        <v>16.5</v>
+        <v>0.2182254196642686</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="H11" t="n">
-        <v>257.5</v>
+        <v>0.2455277280858676</v>
       </c>
       <c r="I11" t="n">
-        <v>1054.1</v>
+        <v>0.373758940962955</v>
       </c>
       <c r="J11" t="n">
-        <v>174</v>
+        <v>0.428571428571427</v>
       </c>
       <c r="K11" t="n">
-        <v>295.05</v>
+        <v>0.3279417711281845</v>
       </c>
       <c r="L11" t="n">
-        <v>14.6</v>
+        <v>0.5487804878048781</v>
       </c>
       <c r="M11" t="n">
-        <v>626</v>
+        <v>0.5978392813789755</v>
       </c>
       <c r="N11" t="n">
-        <v>14</v>
+        <v>0.2896341463414634</v>
       </c>
       <c r="O11" t="n">
-        <v>64</v>
+        <v>0.6385767790262172</v>
       </c>
       <c r="P11" t="n">
-        <v>3283</v>
+        <v>0.294973544973545</v>
       </c>
       <c r="Q11" t="n">
-        <v>854.6</v>
+        <v>0.06475096182762806</v>
       </c>
       <c r="R11" t="n">
-        <v>5.9</v>
+        <v>0.2153846153846154</v>
       </c>
       <c r="S11" t="n">
-        <v>1047.7</v>
+        <v>0.2695355091953188</v>
       </c>
       <c r="T11" t="n">
-        <v>5.8</v>
+        <v>0.3555555555555555</v>
       </c>
       <c r="U11" t="n">
-        <v>2.59</v>
+        <v>0.1328320802005012</v>
       </c>
       <c r="V11" t="n">
-        <v>24.21</v>
+        <v>0.7110530896431682</v>
       </c>
       <c r="W11" t="n">
-        <v>17.28</v>
+        <v>0.5488188976377952</v>
       </c>
       <c r="X11" t="n">
         <v>9</v>
@@ -1325,67 +1325,67 @@
         <v>85.06</v>
       </c>
       <c r="C12" t="n">
-        <v>267.1</v>
+        <v>0.5560398505603985</v>
       </c>
       <c r="D12" t="n">
-        <v>16.1</v>
+        <v>0.8571428571428577</v>
       </c>
       <c r="E12" t="n">
-        <v>23.1</v>
+        <v>0.5707070707070707</v>
       </c>
       <c r="F12" t="n">
-        <v>14.1</v>
+        <v>0.1606714628297362</v>
       </c>
       <c r="G12" t="n">
-        <v>1.1</v>
+        <v>0.4000000000000001</v>
       </c>
       <c r="H12" t="n">
-        <v>309.7</v>
+        <v>0.3622540250447226</v>
       </c>
       <c r="I12" t="n">
-        <v>1198.5</v>
+        <v>0.527917155973097</v>
       </c>
       <c r="J12" t="n">
-        <v>174.5</v>
+        <v>0.5</v>
       </c>
       <c r="K12" t="n">
-        <v>302.75</v>
+        <v>0.3902143145976544</v>
       </c>
       <c r="L12" t="n">
-        <v>9.6</v>
+        <v>0.2439024390243903</v>
       </c>
       <c r="M12" t="n">
-        <v>387.7</v>
+        <v>0.3085700412721534</v>
       </c>
       <c r="N12" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>71.90000000000001</v>
+        <v>0.7865168539325843</v>
       </c>
       <c r="P12" t="n">
-        <v>3109</v>
+        <v>0.2374338624338624</v>
       </c>
       <c r="Q12" t="n">
-        <v>1217.9</v>
+        <v>0.1024255685412368</v>
       </c>
       <c r="R12" t="n">
-        <v>7.4</v>
+        <v>0.3307692307692308</v>
       </c>
       <c r="S12" t="n">
-        <v>1090</v>
+        <v>0.3002834920404158</v>
       </c>
       <c r="T12" t="n">
-        <v>6</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="U12" t="n">
-        <v>3.59</v>
+        <v>0.3834586466165414</v>
       </c>
       <c r="V12" t="n">
-        <v>20.43</v>
+        <v>0.3820713664055702</v>
       </c>
       <c r="W12" t="n">
-        <v>17.98</v>
+        <v>0.6039370078740158</v>
       </c>
       <c r="X12" t="n">
         <v>10</v>
@@ -1401,67 +1401,67 @@
         <v>84</v>
       </c>
       <c r="C13" t="n">
-        <v>251.3</v>
+        <v>0.4576587795765878</v>
       </c>
       <c r="D13" t="n">
-        <v>14.1</v>
+        <v>0.5</v>
       </c>
       <c r="E13" t="n">
-        <v>14.4</v>
+        <v>0.1313131313131313</v>
       </c>
       <c r="F13" t="n">
-        <v>21.1</v>
+        <v>0.328537170263789</v>
       </c>
       <c r="G13" t="n">
-        <v>1.3</v>
+        <v>0.5000000000000001</v>
       </c>
       <c r="H13" t="n">
-        <v>373.9</v>
+        <v>0.5058139534883721</v>
       </c>
       <c r="I13" t="n">
-        <v>1274.1</v>
+        <v>0.6086260275435037</v>
       </c>
       <c r="J13" t="n">
-        <v>174</v>
+        <v>0.428571428571427</v>
       </c>
       <c r="K13" t="n">
-        <v>282.3</v>
+        <v>0.2248281439547108</v>
       </c>
       <c r="L13" t="n">
-        <v>15.8</v>
+        <v>0.6219512195121952</v>
       </c>
       <c r="M13" t="n">
-        <v>743.4</v>
+        <v>0.7403495994173344</v>
       </c>
       <c r="N13" t="n">
-        <v>11.2</v>
+        <v>0.2042682926829268</v>
       </c>
       <c r="O13" t="n">
-        <v>67.7</v>
+        <v>0.7078651685393259</v>
       </c>
       <c r="P13" t="n">
-        <v>2742</v>
+        <v>0.1160714285714286</v>
       </c>
       <c r="Q13" t="n">
-        <v>230.2</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>9.199999999999999</v>
+        <v>0.4692307692307691</v>
       </c>
       <c r="S13" t="n">
-        <v>1500.7</v>
+        <v>0.598822417678273</v>
       </c>
       <c r="T13" t="n">
-        <v>8.1</v>
+        <v>0.611111111111111</v>
       </c>
       <c r="U13" t="n">
-        <v>2.52</v>
+        <v>0.1152882205513784</v>
       </c>
       <c r="V13" t="n">
-        <v>17.74</v>
+        <v>0.1479547432550044</v>
       </c>
       <c r="W13" t="n">
-        <v>16.18</v>
+        <v>0.4622047244094487</v>
       </c>
       <c r="X13" t="n">
         <v>11</v>
@@ -1477,67 +1477,67 @@
         <v>84.81</v>
       </c>
       <c r="C14" t="n">
-        <v>266.1</v>
+        <v>0.5498132004981322</v>
       </c>
       <c r="D14" t="n">
-        <v>13.7</v>
+        <v>0.4285714285714284</v>
       </c>
       <c r="E14" t="n">
-        <v>24.5</v>
+        <v>0.6414141414141414</v>
       </c>
       <c r="F14" t="n">
-        <v>16.6</v>
+        <v>0.2206235011990408</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6</v>
+        <v>0.15</v>
       </c>
       <c r="H14" t="n">
-        <v>211.2</v>
+        <v>0.141994633273703</v>
       </c>
       <c r="I14" t="n">
-        <v>988.3</v>
+        <v>0.3035123305220454</v>
       </c>
       <c r="J14" t="n">
-        <v>173.5</v>
+        <v>0.3571428571428577</v>
       </c>
       <c r="K14" t="n">
-        <v>315.35</v>
+        <v>0.49211484027497</v>
       </c>
       <c r="L14" t="n">
-        <v>10.7</v>
+        <v>0.3109756097560976</v>
       </c>
       <c r="M14" t="n">
-        <v>211.6</v>
+        <v>0.09480456421461519</v>
       </c>
       <c r="N14" t="n">
-        <v>19.8</v>
+        <v>0.4664634146341464</v>
       </c>
       <c r="O14" t="n">
-        <v>66.90000000000001</v>
+        <v>0.6928838951310862</v>
       </c>
       <c r="P14" t="n">
-        <v>2968</v>
+        <v>0.1908068783068783</v>
       </c>
       <c r="Q14" t="n">
-        <v>1973.3</v>
+        <v>0.1807613734172621</v>
       </c>
       <c r="R14" t="n">
-        <v>5.7</v>
+        <v>0.2</v>
       </c>
       <c r="S14" t="n">
-        <v>981</v>
+        <v>0.2210511012575417</v>
       </c>
       <c r="T14" t="n">
-        <v>4.2</v>
+        <v>0.1777777777777778</v>
       </c>
       <c r="U14" t="n">
-        <v>2.93</v>
+        <v>0.2180451127819549</v>
       </c>
       <c r="V14" t="n">
-        <v>20.43</v>
+        <v>0.3820713664055702</v>
       </c>
       <c r="W14" t="n">
-        <v>17.8</v>
+        <v>0.589763779527559</v>
       </c>
       <c r="X14" t="n">
         <v>12</v>
@@ -1553,67 +1553,67 @@
         <v>83.92</v>
       </c>
       <c r="C15" t="n">
-        <v>193.8</v>
+        <v>0.09962640099626396</v>
       </c>
       <c r="D15" t="n">
-        <v>12.7</v>
+        <v>0.25</v>
       </c>
       <c r="E15" t="n">
-        <v>18.2</v>
+        <v>0.3232323232323231</v>
       </c>
       <c r="F15" t="n">
-        <v>8.5</v>
+        <v>0.02637889688249401</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="H15" t="n">
-        <v>252.6</v>
+        <v>0.2345706618962433</v>
       </c>
       <c r="I15" t="n">
-        <v>806.3</v>
+        <v>0.1092131952599551</v>
       </c>
       <c r="J15" t="n">
-        <v>173.5</v>
+        <v>0.3571428571428577</v>
       </c>
       <c r="K15" t="n">
-        <v>308.4</v>
+        <v>0.4359078042862916</v>
       </c>
       <c r="L15" t="n">
-        <v>14.5</v>
+        <v>0.5426829268292683</v>
       </c>
       <c r="M15" t="n">
-        <v>425</v>
+        <v>0.3538480213644088</v>
       </c>
       <c r="N15" t="n">
-        <v>14.9</v>
+        <v>0.3170731707317074</v>
       </c>
       <c r="O15" t="n">
-        <v>32.4</v>
+        <v>0.04681647940074907</v>
       </c>
       <c r="P15" t="n">
-        <v>3327</v>
+        <v>0.3095238095238094</v>
       </c>
       <c r="Q15" t="n">
-        <v>737.2</v>
+        <v>0.05257645363005674</v>
       </c>
       <c r="R15" t="n">
-        <v>5.3</v>
+        <v>0.1692307692307692</v>
       </c>
       <c r="S15" t="n">
-        <v>917.2</v>
+        <v>0.1746747110561896</v>
       </c>
       <c r="T15" t="n">
-        <v>6</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="U15" t="n">
-        <v>3.06</v>
+        <v>0.2506265664160402</v>
       </c>
       <c r="V15" t="n">
-        <v>26.37</v>
+        <v>0.8990426457789384</v>
       </c>
       <c r="W15" t="n">
-        <v>17.5</v>
+        <v>0.5661417322834645</v>
       </c>
       <c r="X15" t="n">
         <v>13</v>
@@ -1629,67 +1629,67 @@
         <v>85.06</v>
       </c>
       <c r="C16" t="n">
-        <v>291.6</v>
+        <v>0.7085927770859279</v>
       </c>
       <c r="D16" t="n">
-        <v>14.7</v>
+        <v>0.6071428571428572</v>
       </c>
       <c r="E16" t="n">
-        <v>19.8</v>
+        <v>0.404040404040404</v>
       </c>
       <c r="F16" t="n">
-        <v>28.2</v>
+        <v>0.4988009592326139</v>
       </c>
       <c r="G16" t="n">
-        <v>1.1</v>
+        <v>0.4000000000000001</v>
       </c>
       <c r="H16" t="n">
-        <v>325.9</v>
+        <v>0.3984794275491949</v>
       </c>
       <c r="I16" t="n">
-        <v>1199.3</v>
+        <v>0.5287712181061172</v>
       </c>
       <c r="J16" t="n">
-        <v>174</v>
+        <v>0.428571428571427</v>
       </c>
       <c r="K16" t="n">
-        <v>293.9</v>
+        <v>0.3186413263243022</v>
       </c>
       <c r="L16" t="n">
-        <v>14.8</v>
+        <v>0.5609756097560976</v>
       </c>
       <c r="M16" t="n">
-        <v>725.8</v>
+        <v>0.7189851905802378</v>
       </c>
       <c r="N16" t="n">
-        <v>12.6</v>
+        <v>0.2469512195121951</v>
       </c>
       <c r="O16" t="n">
-        <v>66.3</v>
+        <v>0.6816479400749064</v>
       </c>
       <c r="P16" t="n">
-        <v>3023</v>
+        <v>0.208994708994709</v>
       </c>
       <c r="Q16" t="n">
-        <v>812.1</v>
+        <v>0.06034366541879686</v>
       </c>
       <c r="R16" t="n">
-        <v>6.9</v>
+        <v>0.2923076923076923</v>
       </c>
       <c r="S16" t="n">
-        <v>1221.1</v>
+        <v>0.3955804317801846</v>
       </c>
       <c r="T16" t="n">
-        <v>5.7</v>
+        <v>0.3444444444444444</v>
       </c>
       <c r="U16" t="n">
-        <v>2.51</v>
+        <v>0.112781954887218</v>
       </c>
       <c r="V16" t="n">
-        <v>20.12</v>
+        <v>0.3550913838120107</v>
       </c>
       <c r="W16" t="n">
-        <v>13.93</v>
+        <v>0.2850393700787401</v>
       </c>
       <c r="X16" t="n">
         <v>14</v>
@@ -1705,67 +1705,67 @@
         <v>83.84999999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>207.3</v>
+        <v>0.1836861768368616</v>
       </c>
       <c r="D17" t="n">
-        <v>12.7</v>
+        <v>0.25</v>
       </c>
       <c r="E17" t="n">
-        <v>12.7</v>
+        <v>0.0454545454545453</v>
       </c>
       <c r="F17" t="n">
-        <v>42.9</v>
+        <v>0.8513189448441247</v>
       </c>
       <c r="G17" t="n">
-        <v>1.2</v>
+        <v>0.4500000000000001</v>
       </c>
       <c r="H17" t="n">
-        <v>339.6</v>
+        <v>0.4291144901610018</v>
       </c>
       <c r="I17" t="n">
-        <v>1045.7</v>
+        <v>0.3647912885662433</v>
       </c>
       <c r="J17" t="n">
-        <v>173.5</v>
+        <v>0.3571428571428577</v>
       </c>
       <c r="K17" t="n">
-        <v>255.65</v>
+        <v>0.009300444803881813</v>
       </c>
       <c r="L17" t="n">
-        <v>20.7</v>
+        <v>0.9207317073170731</v>
       </c>
       <c r="M17" t="n">
-        <v>732.3</v>
+        <v>0.7268754552075747</v>
       </c>
       <c r="N17" t="n">
-        <v>4.7</v>
+        <v>0.006097560975609762</v>
       </c>
       <c r="O17" t="n">
-        <v>74.59999999999999</v>
+        <v>0.8370786516853931</v>
       </c>
       <c r="P17" t="n">
-        <v>2841</v>
+        <v>0.1488095238095238</v>
       </c>
       <c r="Q17" t="n">
-        <v>322.7</v>
+        <v>0.009592351007456111</v>
       </c>
       <c r="R17" t="n">
-        <v>6.4</v>
+        <v>0.2538461538461538</v>
       </c>
       <c r="S17" t="n">
-        <v>1070.8</v>
+        <v>0.2863269608199462</v>
       </c>
       <c r="T17" t="n">
-        <v>8.4</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="U17" t="n">
-        <v>6.05</v>
+        <v>1</v>
       </c>
       <c r="V17" t="n">
-        <v>16.04</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>10.31</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>15</v>
@@ -1781,67 +1781,67 @@
         <v>84.59999999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>290</v>
+        <v>0.6986301369863013</v>
       </c>
       <c r="D18" t="n">
-        <v>14.3</v>
+        <v>0.535714285714286</v>
       </c>
       <c r="E18" t="n">
-        <v>20.8</v>
+        <v>0.4545454545454546</v>
       </c>
       <c r="F18" t="n">
-        <v>23.4</v>
+        <v>0.3836930455635491</v>
       </c>
       <c r="G18" t="n">
-        <v>1.2</v>
+        <v>0.4500000000000001</v>
       </c>
       <c r="H18" t="n">
-        <v>345.1</v>
+        <v>0.4414132379248658</v>
       </c>
       <c r="I18" t="n">
-        <v>1278.9</v>
+        <v>0.6137504003416249</v>
       </c>
       <c r="J18" t="n">
-        <v>175</v>
+        <v>0.571428571428573</v>
       </c>
       <c r="K18" t="n">
-        <v>290.9</v>
+        <v>0.2943792964011318</v>
       </c>
       <c r="L18" t="n">
-        <v>11.9</v>
+        <v>0.3841463414634147</v>
       </c>
       <c r="M18" t="n">
-        <v>487</v>
+        <v>0.4291090070405438</v>
       </c>
       <c r="N18" t="n">
-        <v>10.9</v>
+        <v>0.1951219512195122</v>
       </c>
       <c r="O18" t="n">
-        <v>46.4</v>
+        <v>0.3089887640449438</v>
       </c>
       <c r="P18" t="n">
-        <v>3013</v>
+        <v>0.2056878306878307</v>
       </c>
       <c r="Q18" t="n">
-        <v>945.6</v>
+        <v>0.07418776119712542</v>
       </c>
       <c r="R18" t="n">
-        <v>8.1</v>
+        <v>0.3846153846153845</v>
       </c>
       <c r="S18" t="n">
-        <v>1188.6</v>
+        <v>0.371956095078869</v>
       </c>
       <c r="T18" t="n">
-        <v>5.6</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="U18" t="n">
-        <v>4.02</v>
+        <v>0.4912280701754386</v>
       </c>
       <c r="V18" t="n">
-        <v>21.53</v>
+        <v>0.4778067885117494</v>
       </c>
       <c r="W18" t="n">
-        <v>15.26</v>
+        <v>0.389763779527559</v>
       </c>
       <c r="X18" t="n">
         <v>16</v>
@@ -1857,67 +1857,67 @@
         <v>84.23999999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>283.6</v>
+        <v>0.658779576587796</v>
       </c>
       <c r="D19" t="n">
-        <v>14.4</v>
+        <v>0.5535714285714288</v>
       </c>
       <c r="E19" t="n">
-        <v>14</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="F19" t="n">
-        <v>9.1</v>
+        <v>0.04076738609112709</v>
       </c>
       <c r="G19" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>589.5</v>
+        <v>0.9879248658318425</v>
       </c>
       <c r="I19" t="n">
-        <v>1562.5</v>
+        <v>0.9165154264972778</v>
       </c>
       <c r="J19" t="n">
-        <v>175</v>
+        <v>0.571428571428573</v>
       </c>
       <c r="K19" t="n">
-        <v>265.1</v>
+        <v>0.08572583906186804</v>
       </c>
       <c r="L19" t="n">
-        <v>16.9</v>
+        <v>0.6890243902439024</v>
       </c>
       <c r="M19" t="n">
-        <v>625.2</v>
+        <v>0.5968681718863802</v>
       </c>
       <c r="N19" t="n">
-        <v>13.6</v>
+        <v>0.2774390243902439</v>
       </c>
       <c r="O19" t="n">
-        <v>63.7</v>
+        <v>0.6329588014981274</v>
       </c>
       <c r="P19" t="n">
-        <v>2509</v>
+        <v>0.03902116402116396</v>
       </c>
       <c r="Q19" t="n">
-        <v>483</v>
+        <v>0.02621563605064762</v>
       </c>
       <c r="R19" t="n">
-        <v>12.4</v>
+        <v>0.7153846153846153</v>
       </c>
       <c r="S19" t="n">
-        <v>1578.1</v>
+        <v>0.6550846841607909</v>
       </c>
       <c r="T19" t="n">
-        <v>8.800000000000001</v>
+        <v>0.688888888888889</v>
       </c>
       <c r="U19" t="n">
-        <v>3.32</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="V19" t="n">
-        <v>23.49</v>
+        <v>0.6483899042645778</v>
       </c>
       <c r="W19" t="n">
-        <v>17.85</v>
+        <v>0.5937007874015749</v>
       </c>
       <c r="X19" t="n">
         <v>17</v>
@@ -1933,67 +1933,67 @@
         <v>84.97</v>
       </c>
       <c r="C20" t="n">
-        <v>223</v>
+        <v>0.2814445828144456</v>
       </c>
       <c r="D20" t="n">
-        <v>15.1</v>
+        <v>0.6785714285714284</v>
       </c>
       <c r="E20" t="n">
-        <v>29.2</v>
+        <v>0.8787878787878787</v>
       </c>
       <c r="F20" t="n">
-        <v>11.8</v>
+        <v>0.105515587529976</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H20" t="n">
-        <v>147.7</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>715</v>
+        <v>0.0117433543290274</v>
       </c>
       <c r="J20" t="n">
-        <v>174</v>
+        <v>0.428571428571427</v>
       </c>
       <c r="K20" t="n">
-        <v>345.8</v>
+        <v>0.7383744439951476</v>
       </c>
       <c r="L20" t="n">
-        <v>7.6</v>
+        <v>0.1219512195121951</v>
       </c>
       <c r="M20" t="n">
-        <v>159.7</v>
+        <v>0.03180383588249572</v>
       </c>
       <c r="N20" t="n">
-        <v>22.8</v>
+        <v>0.5579268292682927</v>
       </c>
       <c r="O20" t="n">
-        <v>38.7</v>
+        <v>0.1647940074906368</v>
       </c>
       <c r="P20" t="n">
-        <v>3268</v>
+        <v>0.2900132275132276</v>
       </c>
       <c r="Q20" t="n">
-        <v>6267.5</v>
+        <v>0.626074602565565</v>
       </c>
       <c r="R20" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>676.9</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>3.4</v>
+        <v>0.08888888888888891</v>
       </c>
       <c r="U20" t="n">
-        <v>2.82</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="V20" t="n">
-        <v>21.51</v>
+        <v>0.4760661444734553</v>
       </c>
       <c r="W20" t="n">
-        <v>23.01</v>
+        <v>1</v>
       </c>
       <c r="X20" t="n">
         <v>18</v>
@@ -2009,67 +2009,67 @@
         <v>84.31999999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>322</v>
+        <v>0.8978829389788294</v>
       </c>
       <c r="D21" t="n">
-        <v>12.9</v>
+        <v>0.2857142857142856</v>
       </c>
       <c r="E21" t="n">
-        <v>14.3</v>
+        <v>0.1262626262626262</v>
       </c>
       <c r="F21" t="n">
-        <v>11.7</v>
+        <v>0.1031175059952038</v>
       </c>
       <c r="G21" t="n">
-        <v>1.6</v>
+        <v>0.6500000000000002</v>
       </c>
       <c r="H21" t="n">
-        <v>515.2</v>
+        <v>0.8217799642218246</v>
       </c>
       <c r="I21" t="n">
-        <v>1640.7</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>173.5</v>
+        <v>0.3571428571428577</v>
       </c>
       <c r="K21" t="n">
-        <v>269.5</v>
+        <v>0.1213101496158511</v>
       </c>
       <c r="L21" t="n">
-        <v>18.2</v>
+        <v>0.7682926829268293</v>
       </c>
       <c r="M21" t="n">
-        <v>550.2</v>
+        <v>0.5058266569555718</v>
       </c>
       <c r="N21" t="n">
-        <v>6.7</v>
+        <v>0.06707317073170732</v>
       </c>
       <c r="O21" t="n">
-        <v>83.3</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="P21" t="n">
-        <v>2644</v>
+        <v>0.08366402116402116</v>
       </c>
       <c r="Q21" t="n">
-        <v>595.5</v>
+        <v>0.0378820088975537</v>
       </c>
       <c r="R21" t="n">
-        <v>16.1</v>
+        <v>1</v>
       </c>
       <c r="S21" t="n">
-        <v>2052.6</v>
+        <v>1</v>
       </c>
       <c r="T21" t="n">
-        <v>10.1</v>
+        <v>0.8333333333333331</v>
       </c>
       <c r="U21" t="n">
-        <v>3.84</v>
+        <v>0.4461152882205515</v>
       </c>
       <c r="V21" t="n">
-        <v>21.66</v>
+        <v>0.4891209747606615</v>
       </c>
       <c r="W21" t="n">
-        <v>14.74</v>
+        <v>0.3488188976377953</v>
       </c>
       <c r="X21" t="n">
         <v>19</v>
@@ -2085,67 +2085,67 @@
         <v>85.06999999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>297</v>
+        <v>0.742216687422167</v>
       </c>
       <c r="D22" t="n">
-        <v>12.8</v>
+        <v>0.2678571428571428</v>
       </c>
       <c r="E22" t="n">
-        <v>16.3</v>
+        <v>0.2272727272727272</v>
       </c>
       <c r="F22" t="n">
-        <v>18.2</v>
+        <v>0.2589928057553957</v>
       </c>
       <c r="G22" t="n">
-        <v>2.2</v>
+        <v>0.9500000000000003</v>
       </c>
       <c r="H22" t="n">
-        <v>502.7</v>
+        <v>0.7938282647584971</v>
       </c>
       <c r="I22" t="n">
-        <v>1524.4</v>
+        <v>0.8758407174121919</v>
       </c>
       <c r="J22" t="n">
-        <v>176</v>
+        <v>0.7142857142857153</v>
       </c>
       <c r="K22" t="n">
-        <v>276.05</v>
+        <v>0.1742822482814397</v>
       </c>
       <c r="L22" t="n">
-        <v>16.1</v>
+        <v>0.6402439024390245</v>
       </c>
       <c r="M22" t="n">
-        <v>520.2</v>
+        <v>0.4694100509832485</v>
       </c>
       <c r="N22" t="n">
-        <v>21</v>
+        <v>0.5030487804878049</v>
       </c>
       <c r="O22" t="n">
-        <v>61.8</v>
+        <v>0.597378277153558</v>
       </c>
       <c r="P22" t="n">
-        <v>2667</v>
+        <v>0.09126984126984128</v>
       </c>
       <c r="Q22" t="n">
-        <v>632.8</v>
+        <v>0.04175005962812789</v>
       </c>
       <c r="R22" t="n">
-        <v>9.800000000000001</v>
+        <v>0.5153846153846153</v>
       </c>
       <c r="S22" t="n">
-        <v>1440.2</v>
+        <v>0.5548448062804392</v>
       </c>
       <c r="T22" t="n">
-        <v>6.9</v>
+        <v>0.4777777777777779</v>
       </c>
       <c r="U22" t="n">
-        <v>3.6</v>
+        <v>0.3859649122807018</v>
       </c>
       <c r="V22" t="n">
-        <v>17.09</v>
+        <v>0.09138381201044399</v>
       </c>
       <c r="W22" t="n">
-        <v>17.18</v>
+        <v>0.5409448818897638</v>
       </c>
       <c r="X22" t="n">
         <v>20</v>
@@ -2161,67 +2161,67 @@
         <v>85.25</v>
       </c>
       <c r="C23" t="n">
-        <v>332.6</v>
+        <v>0.9638854296388546</v>
       </c>
       <c r="D23" t="n">
-        <v>13.3</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="E23" t="n">
-        <v>24</v>
+        <v>0.6161616161616161</v>
       </c>
       <c r="F23" t="n">
-        <v>16.4</v>
+        <v>0.2158273381294963</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="H23" t="n">
-        <v>229.8</v>
+        <v>0.1835867620751342</v>
       </c>
       <c r="I23" t="n">
-        <v>1015.4</v>
+        <v>0.332443685278104</v>
       </c>
       <c r="J23" t="n">
-        <v>172</v>
+        <v>0.1428571428571423</v>
       </c>
       <c r="K23" t="n">
-        <v>321.55</v>
+        <v>0.542256368782855</v>
       </c>
       <c r="L23" t="n">
-        <v>9.699999999999999</v>
+        <v>0.2499999999999999</v>
       </c>
       <c r="M23" t="n">
-        <v>258.7</v>
+        <v>0.1519786355911629</v>
       </c>
       <c r="N23" t="n">
-        <v>20.6</v>
+        <v>0.4908536585365855</v>
       </c>
       <c r="O23" t="n">
-        <v>74.2</v>
+        <v>0.8295880149812734</v>
       </c>
       <c r="P23" t="n">
-        <v>2983</v>
+        <v>0.1957671957671957</v>
       </c>
       <c r="Q23" t="n">
-        <v>2189.8</v>
+        <v>0.203212659829308</v>
       </c>
       <c r="R23" t="n">
-        <v>5.9</v>
+        <v>0.2153846153846154</v>
       </c>
       <c r="S23" t="n">
-        <v>1130.5</v>
+        <v>0.3297230500835938</v>
       </c>
       <c r="T23" t="n">
-        <v>4.5</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="U23" t="n">
-        <v>2.74</v>
+        <v>0.1704260651629074</v>
       </c>
       <c r="V23" t="n">
-        <v>20.62</v>
+        <v>0.3986074847693648</v>
       </c>
       <c r="W23" t="n">
-        <v>19.24</v>
+        <v>0.7031496062992124</v>
       </c>
       <c r="X23" t="n">
         <v>21</v>
@@ -2237,67 +2237,67 @@
         <v>84.64</v>
       </c>
       <c r="C24" t="n">
-        <v>231.6</v>
+        <v>0.3349937733499375</v>
       </c>
       <c r="D24" t="n">
-        <v>12.2</v>
+        <v>0.1607142857142856</v>
       </c>
       <c r="E24" t="n">
-        <v>18</v>
+        <v>0.313131313131313</v>
       </c>
       <c r="F24" t="n">
-        <v>25.9</v>
+        <v>0.4436450839328536</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="H24" t="n">
-        <v>260.3</v>
+        <v>0.251788908765653</v>
       </c>
       <c r="I24" t="n">
-        <v>948.6</v>
+        <v>0.2611294971709192</v>
       </c>
       <c r="J24" t="n">
-        <v>176</v>
+        <v>0.7142857142857153</v>
       </c>
       <c r="K24" t="n">
-        <v>304.4</v>
+        <v>0.4035584310553979</v>
       </c>
       <c r="L24" t="n">
-        <v>15.4</v>
+        <v>0.5975609756097562</v>
       </c>
       <c r="M24" t="n">
-        <v>365.9</v>
+        <v>0.2821073075989317</v>
       </c>
       <c r="N24" t="n">
-        <v>36.1</v>
+        <v>0.9634146341463417</v>
       </c>
       <c r="O24" t="n">
-        <v>64.2</v>
+        <v>0.6423220973782772</v>
       </c>
       <c r="P24" t="n">
-        <v>3121</v>
+        <v>0.2414021164021164</v>
       </c>
       <c r="Q24" t="n">
-        <v>857.6</v>
+        <v>0.06506206510354555</v>
       </c>
       <c r="R24" t="n">
-        <v>4.6</v>
+        <v>0.1153846153846153</v>
       </c>
       <c r="S24" t="n">
-        <v>903.4</v>
+        <v>0.1646434542414771</v>
       </c>
       <c r="T24" t="n">
-        <v>6.8</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="U24" t="n">
-        <v>3.58</v>
+        <v>0.380952380952381</v>
       </c>
       <c r="V24" t="n">
-        <v>25.42</v>
+        <v>0.8163620539599652</v>
       </c>
       <c r="W24" t="n">
-        <v>17.18</v>
+        <v>0.5409448818897638</v>
       </c>
       <c r="X24" t="n">
         <v>22</v>
@@ -2313,67 +2313,67 @@
         <v>84.61</v>
       </c>
       <c r="C25" t="n">
-        <v>246.3</v>
+        <v>0.4265255292652552</v>
       </c>
       <c r="D25" t="n">
-        <v>12.2</v>
+        <v>0.1607142857142856</v>
       </c>
       <c r="E25" t="n">
-        <v>18.4</v>
+        <v>0.3333333333333331</v>
       </c>
       <c r="F25" t="n">
-        <v>33.9</v>
+        <v>0.6354916067146282</v>
       </c>
       <c r="G25" t="n">
-        <v>1.2</v>
+        <v>0.4500000000000001</v>
       </c>
       <c r="H25" t="n">
-        <v>266.7</v>
+        <v>0.2661001788908765</v>
       </c>
       <c r="I25" t="n">
-        <v>931.1</v>
+        <v>0.2424468880111028</v>
       </c>
       <c r="J25" t="n">
-        <v>176</v>
+        <v>0.7142857142857153</v>
       </c>
       <c r="K25" t="n">
-        <v>292.2</v>
+        <v>0.3048928427011726</v>
       </c>
       <c r="L25" t="n">
-        <v>13</v>
+        <v>0.451219512195122</v>
       </c>
       <c r="M25" t="n">
-        <v>387.9</v>
+        <v>0.3088128186453022</v>
       </c>
       <c r="N25" t="n">
-        <v>23.5</v>
+        <v>0.5792682926829269</v>
       </c>
       <c r="O25" t="n">
-        <v>55.4</v>
+        <v>0.4775280898876405</v>
       </c>
       <c r="P25" t="n">
-        <v>2945</v>
+        <v>0.1832010582010581</v>
       </c>
       <c r="Q25" t="n">
-        <v>722.6</v>
+        <v>0.05106241768725825</v>
       </c>
       <c r="R25" t="n">
-        <v>4.7</v>
+        <v>0.1230769230769231</v>
       </c>
       <c r="S25" t="n">
-        <v>857</v>
+        <v>0.1309151704586756</v>
       </c>
       <c r="T25" t="n">
-        <v>5.3</v>
+        <v>0.2999999999999999</v>
       </c>
       <c r="U25" t="n">
-        <v>2.9</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="V25" t="n">
-        <v>17.21</v>
+        <v>0.1018276762402091</v>
       </c>
       <c r="W25" t="n">
-        <v>13.48</v>
+        <v>0.2496062992125985</v>
       </c>
       <c r="X25" t="n">
         <v>23</v>
@@ -2389,67 +2389,67 @@
         <v>84.38</v>
       </c>
       <c r="C26" t="n">
-        <v>255.5</v>
+        <v>0.483810709838107</v>
       </c>
       <c r="D26" t="n">
-        <v>12.2</v>
+        <v>0.1607142857142856</v>
       </c>
       <c r="E26" t="n">
-        <v>13.4</v>
+        <v>0.08080808080808077</v>
       </c>
       <c r="F26" t="n">
-        <v>19.2</v>
+        <v>0.2829736211031175</v>
       </c>
       <c r="G26" t="n">
-        <v>1.6</v>
+        <v>0.6500000000000002</v>
       </c>
       <c r="H26" t="n">
-        <v>545.5</v>
+        <v>0.88953488372093</v>
       </c>
       <c r="I26" t="n">
-        <v>1463</v>
+        <v>0.810291448702893</v>
       </c>
       <c r="J26" t="n">
-        <v>175</v>
+        <v>0.571428571428573</v>
       </c>
       <c r="K26" t="n">
-        <v>258.2</v>
+        <v>0.02992317023857627</v>
       </c>
       <c r="L26" t="n">
-        <v>18.8</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="M26" t="n">
-        <v>603.3</v>
+        <v>0.570284049526584</v>
       </c>
       <c r="N26" t="n">
-        <v>11.9</v>
+        <v>0.225609756097561</v>
       </c>
       <c r="O26" t="n">
-        <v>75.5</v>
+        <v>0.8539325842696629</v>
       </c>
       <c r="P26" t="n">
-        <v>2468</v>
+        <v>0.02546296296296291</v>
       </c>
       <c r="Q26" t="n">
-        <v>570.1</v>
+        <v>0.03524800116145223</v>
       </c>
       <c r="R26" t="n">
-        <v>11.2</v>
+        <v>0.6230769230769229</v>
       </c>
       <c r="S26" t="n">
-        <v>1326.4</v>
+        <v>0.4721232826924476</v>
       </c>
       <c r="T26" t="n">
-        <v>5.2</v>
+        <v>0.2888888888888889</v>
       </c>
       <c r="U26" t="n">
-        <v>3.32</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="V26" t="n">
-        <v>20.23</v>
+        <v>0.3646649260226285</v>
       </c>
       <c r="W26" t="n">
-        <v>15.88</v>
+        <v>0.4385826771653543</v>
       </c>
       <c r="X26" t="n">
         <v>24</v>
@@ -2465,67 +2465,67 @@
         <v>85.45999999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>243.8</v>
+        <v>0.4109589041095891</v>
       </c>
       <c r="D27" t="n">
-        <v>16.9</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>18.1</v>
+        <v>0.3181818181818181</v>
       </c>
       <c r="F27" t="n">
-        <v>24.3</v>
+        <v>0.4052757793764988</v>
       </c>
       <c r="G27" t="n">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="H27" t="n">
-        <v>226.1</v>
+        <v>0.1753130590339892</v>
       </c>
       <c r="I27" t="n">
-        <v>1040.6</v>
+        <v>0.3593466424682396</v>
       </c>
       <c r="J27" t="n">
-        <v>171</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>291.5</v>
+        <v>0.2992317023857662</v>
       </c>
       <c r="L27" t="n">
-        <v>12.3</v>
+        <v>0.4085365853658537</v>
       </c>
       <c r="M27" t="n">
-        <v>954.2</v>
+        <v>0.9962369507161934</v>
       </c>
       <c r="N27" t="n">
-        <v>20.5</v>
+        <v>0.4878048780487806</v>
       </c>
       <c r="O27" t="n">
-        <v>75.3</v>
+        <v>0.850187265917603</v>
       </c>
       <c r="P27" t="n">
-        <v>3010</v>
+        <v>0.2046957671957672</v>
       </c>
       <c r="Q27" t="n">
-        <v>630.4</v>
+        <v>0.04150117700739389</v>
       </c>
       <c r="R27" t="n">
-        <v>5.4</v>
+        <v>0.1769230769230769</v>
       </c>
       <c r="S27" t="n">
-        <v>1010.2</v>
+        <v>0.2422766591553391</v>
       </c>
       <c r="T27" t="n">
-        <v>7.1</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="U27" t="n">
-        <v>2.61</v>
+        <v>0.1378446115288221</v>
       </c>
       <c r="V27" t="n">
-        <v>25.09</v>
+        <v>0.7876414273281114</v>
       </c>
       <c r="W27" t="n">
-        <v>15.48</v>
+        <v>0.4070866141732283</v>
       </c>
       <c r="X27" t="n">
         <v>25</v>
@@ -2541,67 +2541,67 @@
         <v>84.20999999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>319.1</v>
+        <v>0.8798256537982567</v>
       </c>
       <c r="D28" t="n">
-        <v>12.3</v>
+        <v>0.1785714285714288</v>
       </c>
       <c r="E28" t="n">
-        <v>14.1</v>
+        <v>0.116161616161616</v>
       </c>
       <c r="F28" t="n">
-        <v>18.3</v>
+        <v>0.2613908872901679</v>
       </c>
       <c r="G28" t="n">
-        <v>2.1</v>
+        <v>0.9000000000000002</v>
       </c>
       <c r="H28" t="n">
-        <v>594.9</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="I28" t="n">
-        <v>1525.3</v>
+        <v>0.8768015373118393</v>
       </c>
       <c r="J28" t="n">
-        <v>176</v>
+        <v>0.7142857142857153</v>
       </c>
       <c r="K28" t="n">
-        <v>270.75</v>
+        <v>0.1314193287505052</v>
       </c>
       <c r="L28" t="n">
-        <v>18.1</v>
+        <v>0.7621951219512195</v>
       </c>
       <c r="M28" t="n">
-        <v>611.5</v>
+        <v>0.5802379218256859</v>
       </c>
       <c r="N28" t="n">
-        <v>17.9</v>
+        <v>0.4085365853658537</v>
       </c>
       <c r="O28" t="n">
-        <v>58.5</v>
+        <v>0.5355805243445694</v>
       </c>
       <c r="P28" t="n">
-        <v>2629</v>
+        <v>0.07870370370370372</v>
       </c>
       <c r="Q28" t="n">
-        <v>786.8</v>
+        <v>0.05772002779189266</v>
       </c>
       <c r="R28" t="n">
-        <v>9.1</v>
+        <v>0.4615384615384614</v>
       </c>
       <c r="S28" t="n">
-        <v>1420.3</v>
+        <v>0.5403794431925566</v>
       </c>
       <c r="T28" t="n">
-        <v>7.2</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="U28" t="n">
-        <v>3.07</v>
+        <v>0.2531328320802005</v>
       </c>
       <c r="V28" t="n">
-        <v>22.18</v>
+        <v>0.5343777197563098</v>
       </c>
       <c r="W28" t="n">
-        <v>15.58</v>
+        <v>0.4149606299212598</v>
       </c>
       <c r="X28" t="n">
         <v>26</v>
@@ -2617,67 +2617,67 @@
         <v>85.18000000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>277.1</v>
+        <v>0.6183063511830635</v>
       </c>
       <c r="D29" t="n">
-        <v>15.2</v>
+        <v>0.6964285714285712</v>
       </c>
       <c r="E29" t="n">
-        <v>26.3</v>
+        <v>0.7323232323232323</v>
       </c>
       <c r="F29" t="n">
-        <v>21.1</v>
+        <v>0.328537170263789</v>
       </c>
       <c r="G29" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>218</v>
+        <v>0.1572003577817531</v>
       </c>
       <c r="I29" t="n">
-        <v>936.8</v>
+        <v>0.2485320807088715</v>
       </c>
       <c r="J29" t="n">
-        <v>173</v>
+        <v>0.2857142857142847</v>
       </c>
       <c r="K29" t="n">
-        <v>308.2</v>
+        <v>0.4342903356247469</v>
       </c>
       <c r="L29" t="n">
-        <v>9.699999999999999</v>
+        <v>0.2499999999999999</v>
       </c>
       <c r="M29" t="n">
-        <v>360.9</v>
+        <v>0.2760378732702112</v>
       </c>
       <c r="N29" t="n">
-        <v>17.2</v>
+        <v>0.3871951219512195</v>
       </c>
       <c r="O29" t="n">
-        <v>76.90000000000001</v>
+        <v>0.8801498127340824</v>
       </c>
       <c r="P29" t="n">
-        <v>2632</v>
+        <v>0.07969576719576721</v>
       </c>
       <c r="Q29" t="n">
-        <v>1551.1</v>
+        <v>0.1369787723864732</v>
       </c>
       <c r="R29" t="n">
-        <v>5.4</v>
+        <v>0.1769230769230769</v>
       </c>
       <c r="S29" t="n">
-        <v>1122</v>
+        <v>0.3235443774078651</v>
       </c>
       <c r="T29" t="n">
-        <v>6.2</v>
+        <v>0.4</v>
       </c>
       <c r="U29" t="n">
-        <v>4.06</v>
+        <v>0.5012531328320802</v>
       </c>
       <c r="V29" t="n">
-        <v>24.66</v>
+        <v>0.7502175805047866</v>
       </c>
       <c r="W29" t="n">
-        <v>17.52</v>
+        <v>0.5677165354330709</v>
       </c>
       <c r="X29" t="n">
         <v>27</v>
@@ -2693,67 +2693,67 @@
         <v>84.43000000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>204.3</v>
+        <v>0.1650062266500623</v>
       </c>
       <c r="D30" t="n">
-        <v>13.6</v>
+        <v>0.4107142857142856</v>
       </c>
       <c r="E30" t="n">
-        <v>14.5</v>
+        <v>0.1363636363636362</v>
       </c>
       <c r="F30" t="n">
-        <v>30.5</v>
+        <v>0.5539568345323741</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9</v>
+        <v>0.3000000000000001</v>
       </c>
       <c r="H30" t="n">
-        <v>283.6</v>
+        <v>0.3038908765652952</v>
       </c>
       <c r="I30" t="n">
-        <v>948.7</v>
+        <v>0.2612362549375468</v>
       </c>
       <c r="J30" t="n">
-        <v>173</v>
+        <v>0.2857142857142847</v>
       </c>
       <c r="K30" t="n">
-        <v>268.4</v>
+        <v>0.112414071977355</v>
       </c>
       <c r="L30" t="n">
-        <v>18.8</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="M30" t="n">
-        <v>652.7</v>
+        <v>0.6302500606943433</v>
       </c>
       <c r="N30" t="n">
-        <v>25.2</v>
+        <v>0.6310975609756098</v>
       </c>
       <c r="O30" t="n">
-        <v>63.5</v>
+        <v>0.6292134831460675</v>
       </c>
       <c r="P30" t="n">
-        <v>2916</v>
+        <v>0.173611111111111</v>
       </c>
       <c r="Q30" t="n">
-        <v>483.8</v>
+        <v>0.02629859692422562</v>
       </c>
       <c r="R30" t="n">
-        <v>4.8</v>
+        <v>0.1307692307692307</v>
       </c>
       <c r="S30" t="n">
-        <v>982.2</v>
+        <v>0.221923384458821</v>
       </c>
       <c r="T30" t="n">
-        <v>7.2</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="U30" t="n">
-        <v>3.84</v>
+        <v>0.4461152882205515</v>
       </c>
       <c r="V30" t="n">
-        <v>17.42</v>
+        <v>0.1201044386422978</v>
       </c>
       <c r="W30" t="n">
-        <v>12.72</v>
+        <v>0.1897637795275591</v>
       </c>
       <c r="X30" t="n">
         <v>28</v>
@@ -2769,67 +2769,67 @@
         <v>84.91</v>
       </c>
       <c r="C31" t="n">
-        <v>287.1</v>
+        <v>0.6805728518057286</v>
       </c>
       <c r="D31" t="n">
-        <v>13.5</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="E31" t="n">
-        <v>15.9</v>
+        <v>0.207070707070707</v>
       </c>
       <c r="F31" t="n">
-        <v>10.2</v>
+        <v>0.06714628297362107</v>
       </c>
       <c r="G31" t="n">
-        <v>2.2</v>
+        <v>0.9500000000000003</v>
       </c>
       <c r="H31" t="n">
-        <v>466.1</v>
+        <v>0.7119856887298748</v>
       </c>
       <c r="I31" t="n">
-        <v>1449.5</v>
+        <v>0.7958791502081776</v>
       </c>
       <c r="J31" t="n">
-        <v>176</v>
+        <v>0.7142857142857153</v>
       </c>
       <c r="K31" t="n">
-        <v>274.3</v>
+        <v>0.1601293974929234</v>
       </c>
       <c r="L31" t="n">
-        <v>12.8</v>
+        <v>0.4390243902439026</v>
       </c>
       <c r="M31" t="n">
-        <v>510.9</v>
+        <v>0.458120903131828</v>
       </c>
       <c r="N31" t="n">
-        <v>27.6</v>
+        <v>0.7042682926829269</v>
       </c>
       <c r="O31" t="n">
-        <v>70.8</v>
+        <v>0.7659176029962546</v>
       </c>
       <c r="P31" t="n">
-        <v>2714</v>
+        <v>0.1068121693121693</v>
       </c>
       <c r="Q31" t="n">
-        <v>626.1</v>
+        <v>0.04105526231191216</v>
       </c>
       <c r="R31" t="n">
-        <v>11.4</v>
+        <v>0.6384615384615384</v>
       </c>
       <c r="S31" t="n">
-        <v>1297.8</v>
+        <v>0.4513338663952897</v>
       </c>
       <c r="T31" t="n">
-        <v>6.7</v>
+        <v>0.4555555555555556</v>
       </c>
       <c r="U31" t="n">
-        <v>2.58</v>
+        <v>0.1303258145363408</v>
       </c>
       <c r="V31" t="n">
-        <v>21.21</v>
+        <v>0.4499564838990429</v>
       </c>
       <c r="W31" t="n">
-        <v>15.15</v>
+        <v>0.3811023622047245</v>
       </c>
       <c r="X31" t="n">
         <v>29</v>
@@ -2845,67 +2845,67 @@
         <v>85.09999999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>320.1</v>
+        <v>0.8860523038605232</v>
       </c>
       <c r="D32" t="n">
-        <v>13.9</v>
+        <v>0.4642857142857144</v>
       </c>
       <c r="E32" t="n">
-        <v>20.4</v>
+        <v>0.4343434343434343</v>
       </c>
       <c r="F32" t="n">
-        <v>16.6</v>
+        <v>0.2206235011990408</v>
       </c>
       <c r="G32" t="n">
-        <v>0.8</v>
+        <v>0.2500000000000001</v>
       </c>
       <c r="H32" t="n">
-        <v>279.2</v>
+        <v>0.2940518783542039</v>
       </c>
       <c r="I32" t="n">
-        <v>1200.5</v>
+        <v>0.5300523113056476</v>
       </c>
       <c r="J32" t="n">
-        <v>175</v>
+        <v>0.571428571428573</v>
       </c>
       <c r="K32" t="n">
-        <v>290.55</v>
+        <v>0.2915487262434291</v>
       </c>
       <c r="L32" t="n">
-        <v>11.4</v>
+        <v>0.3536585365853659</v>
       </c>
       <c r="M32" t="n">
-        <v>441.7</v>
+        <v>0.3741199320223355</v>
       </c>
       <c r="N32" t="n">
-        <v>11.3</v>
+        <v>0.2073170731707317</v>
       </c>
       <c r="O32" t="n">
-        <v>68.09999999999999</v>
+        <v>0.7153558052434456</v>
       </c>
       <c r="P32" t="n">
-        <v>2769</v>
+        <v>0.125</v>
       </c>
       <c r="Q32" t="n">
-        <v>847.5</v>
+        <v>0.06401468407462331</v>
       </c>
       <c r="R32" t="n">
-        <v>7.7</v>
+        <v>0.3538461538461538</v>
       </c>
       <c r="S32" t="n">
-        <v>1199.9</v>
+        <v>0.3801700952242496</v>
       </c>
       <c r="T32" t="n">
-        <v>6.4</v>
+        <v>0.4222222222222223</v>
       </c>
       <c r="U32" t="n">
-        <v>2.17</v>
+        <v>0.02756892230576435</v>
       </c>
       <c r="V32" t="n">
-        <v>20.93</v>
+        <v>0.4255874673629243</v>
       </c>
       <c r="W32" t="n">
-        <v>16.41</v>
+        <v>0.4803149606299213</v>
       </c>
       <c r="X32" t="n">
         <v>30</v>
@@ -2921,67 +2921,67 @@
         <v>84.31</v>
       </c>
       <c r="C33" t="n">
-        <v>257.2</v>
+        <v>0.4943960149439601</v>
       </c>
       <c r="D33" t="n">
-        <v>13.9</v>
+        <v>0.4642857142857144</v>
       </c>
       <c r="E33" t="n">
-        <v>15.8</v>
+        <v>0.202020202020202</v>
       </c>
       <c r="F33" t="n">
-        <v>18.2</v>
+        <v>0.2589928057553957</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9</v>
+        <v>0.3000000000000001</v>
       </c>
       <c r="H33" t="n">
-        <v>360.4</v>
+        <v>0.4756261180679784</v>
       </c>
       <c r="I33" t="n">
-        <v>1096.1</v>
+        <v>0.4185972029465143</v>
       </c>
       <c r="J33" t="n">
-        <v>174.5</v>
+        <v>0.5</v>
       </c>
       <c r="K33" t="n">
-        <v>265</v>
+        <v>0.08491710473109571</v>
       </c>
       <c r="L33" t="n">
-        <v>13</v>
+        <v>0.451219512195122</v>
       </c>
       <c r="M33" t="n">
-        <v>348.7</v>
+        <v>0.261228453508133</v>
       </c>
       <c r="N33" t="n">
-        <v>35.7</v>
+        <v>0.9512195121951221</v>
       </c>
       <c r="O33" t="n">
-        <v>46.7</v>
+        <v>0.3146067415730338</v>
       </c>
       <c r="P33" t="n">
-        <v>2391</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>1302.6</v>
+        <v>0.1112090510313074</v>
       </c>
       <c r="R33" t="n">
-        <v>5.2</v>
+        <v>0.1615384615384615</v>
       </c>
       <c r="S33" t="n">
-        <v>1044.5</v>
+        <v>0.2672094206585739</v>
       </c>
       <c r="T33" t="n">
-        <v>5.7</v>
+        <v>0.3444444444444444</v>
       </c>
       <c r="U33" t="n">
-        <v>4.37</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="V33" t="n">
-        <v>24.61</v>
+        <v>0.7458659704090511</v>
       </c>
       <c r="W33" t="n">
-        <v>17.73</v>
+        <v>0.5842519685039369</v>
       </c>
       <c r="X33" t="n">
         <v>31</v>
@@ -2997,67 +2997,67 @@
         <v>84.09</v>
       </c>
       <c r="C34" t="n">
-        <v>285.7</v>
+        <v>0.6718555417185554</v>
       </c>
       <c r="D34" t="n">
-        <v>13.2</v>
+        <v>0.339285714285714</v>
       </c>
       <c r="E34" t="n">
-        <v>21.8</v>
+        <v>0.505050505050505</v>
       </c>
       <c r="F34" t="n">
-        <v>8</v>
+        <v>0.01438848920863309</v>
       </c>
       <c r="G34" t="n">
-        <v>0.4</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="H34" t="n">
-        <v>205.5</v>
+        <v>0.1292486583184257</v>
       </c>
       <c r="I34" t="n">
-        <v>954.9</v>
+        <v>0.2678552364684531</v>
       </c>
       <c r="J34" t="n">
-        <v>173</v>
+        <v>0.2857142857142847</v>
       </c>
       <c r="K34" t="n">
-        <v>327.15</v>
+        <v>0.5875454913061056</v>
       </c>
       <c r="L34" t="n">
-        <v>10.2</v>
+        <v>0.2804878048780488</v>
       </c>
       <c r="M34" t="n">
-        <v>133.5</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>10.5</v>
+        <v>0.1829268292682927</v>
       </c>
       <c r="O34" t="n">
-        <v>29.9</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>3190</v>
+        <v>0.2642195767195766</v>
       </c>
       <c r="Q34" t="n">
-        <v>6624.7</v>
+        <v>0.6631166326181415</v>
       </c>
       <c r="R34" t="n">
-        <v>5.4</v>
+        <v>0.1769230769230769</v>
       </c>
       <c r="S34" t="n">
-        <v>1026.5</v>
+        <v>0.2541251726393836</v>
       </c>
       <c r="T34" t="n">
-        <v>3.6</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="U34" t="n">
-        <v>2.31</v>
+        <v>0.06265664160401008</v>
       </c>
       <c r="V34" t="n">
-        <v>20.94</v>
+        <v>0.4264577893820716</v>
       </c>
       <c r="W34" t="n">
-        <v>21.42</v>
+        <v>0.8748031496062993</v>
       </c>
       <c r="X34" t="n">
         <v>32</v>
@@ -3073,67 +3073,67 @@
         <v>84.59999999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>290.3</v>
+        <v>0.7004981320049815</v>
       </c>
       <c r="D35" t="n">
-        <v>13.1</v>
+        <v>0.3214285714285712</v>
       </c>
       <c r="E35" t="n">
-        <v>15.7</v>
+        <v>0.1969696969696969</v>
       </c>
       <c r="F35" t="n">
-        <v>16.3</v>
+        <v>0.2134292565947242</v>
       </c>
       <c r="G35" t="n">
-        <v>1.7</v>
+        <v>0.7000000000000002</v>
       </c>
       <c r="H35" t="n">
-        <v>512.8</v>
+        <v>0.8164132379248656</v>
       </c>
       <c r="I35" t="n">
-        <v>1528.5</v>
+        <v>0.8802177858439201</v>
       </c>
       <c r="J35" t="n">
-        <v>177.5</v>
+        <v>0.928571428571427</v>
       </c>
       <c r="K35" t="n">
-        <v>269.75</v>
+        <v>0.1233319854427819</v>
       </c>
       <c r="L35" t="n">
-        <v>15.5</v>
+        <v>0.6036585365853659</v>
       </c>
       <c r="M35" t="n">
-        <v>604.1</v>
+        <v>0.5712551590191794</v>
       </c>
       <c r="N35" t="n">
-        <v>11</v>
+        <v>0.1981707317073171</v>
       </c>
       <c r="O35" t="n">
-        <v>45.3</v>
+        <v>0.2883895131086142</v>
       </c>
       <c r="P35" t="n">
-        <v>2753</v>
+        <v>0.1197089947089947</v>
       </c>
       <c r="Q35" t="n">
-        <v>608</v>
+        <v>0.03917827254720993</v>
       </c>
       <c r="R35" t="n">
-        <v>10.6</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="S35" t="n">
-        <v>1455.7</v>
+        <v>0.5661117976302974</v>
       </c>
       <c r="T35" t="n">
-        <v>6.3</v>
+        <v>0.4111111111111111</v>
       </c>
       <c r="U35" t="n">
-        <v>2.96</v>
+        <v>0.2255639097744361</v>
       </c>
       <c r="V35" t="n">
-        <v>22.49</v>
+        <v>0.5613577023498693</v>
       </c>
       <c r="W35" t="n">
-        <v>15.24</v>
+        <v>0.3881889763779527</v>
       </c>
       <c r="X35" t="n">
         <v>33</v>
@@ -3149,67 +3149,67 @@
         <v>84.38</v>
       </c>
       <c r="C36" t="n">
-        <v>177.8</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>15.1</v>
+        <v>0.6785714285714284</v>
       </c>
       <c r="E36" t="n">
-        <v>23.9</v>
+        <v>0.6111111111111109</v>
       </c>
       <c r="F36" t="n">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6</v>
+        <v>0.15</v>
       </c>
       <c r="H36" t="n">
-        <v>187.5</v>
+        <v>0.08899821109123435</v>
       </c>
       <c r="I36" t="n">
-        <v>704</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>174</v>
+        <v>0.428571428571427</v>
       </c>
       <c r="K36" t="n">
-        <v>310.35</v>
+        <v>0.451678123736353</v>
       </c>
       <c r="L36" t="n">
-        <v>10.3</v>
+        <v>0.2865853658536586</v>
       </c>
       <c r="M36" t="n">
-        <v>225</v>
+        <v>0.1110706482155863</v>
       </c>
       <c r="N36" t="n">
-        <v>32.8</v>
+        <v>0.8628048780487805</v>
       </c>
       <c r="O36" t="n">
-        <v>31.4</v>
+        <v>0.0280898876404494</v>
       </c>
       <c r="P36" t="n">
-        <v>3047</v>
+        <v>0.2169312169312169</v>
       </c>
       <c r="Q36" t="n">
-        <v>2821.6</v>
+        <v>0.2687310097375326</v>
       </c>
       <c r="R36" t="n">
-        <v>4</v>
+        <v>0.06923076923076921</v>
       </c>
       <c r="S36" t="n">
-        <v>713.5</v>
+        <v>0.0266046376390201</v>
       </c>
       <c r="T36" t="n">
-        <v>3.9</v>
+        <v>0.1444444444444444</v>
       </c>
       <c r="U36" t="n">
-        <v>3.08</v>
+        <v>0.255639097744361</v>
       </c>
       <c r="V36" t="n">
-        <v>27.53</v>
+        <v>1</v>
       </c>
       <c r="W36" t="n">
-        <v>20.49</v>
+        <v>0.8015748031496062</v>
       </c>
       <c r="X36" t="n">
         <v>34</v>
@@ -3225,67 +3225,67 @@
         <v>85.5</v>
       </c>
       <c r="C37" t="n">
-        <v>236.3</v>
+        <v>0.3642590286425902</v>
       </c>
       <c r="D37" t="n">
-        <v>14.9</v>
+        <v>0.6428571428571428</v>
       </c>
       <c r="E37" t="n">
-        <v>22.4</v>
+        <v>0.5353535353535352</v>
       </c>
       <c r="F37" t="n">
-        <v>34</v>
+        <v>0.6378896882494005</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H37" t="n">
-        <v>161.3</v>
+        <v>0.03041144901610021</v>
       </c>
       <c r="I37" t="n">
-        <v>895.4</v>
+        <v>0.2043343653250774</v>
       </c>
       <c r="J37" t="n">
-        <v>173</v>
+        <v>0.2857142857142847</v>
       </c>
       <c r="K37" t="n">
-        <v>310.85</v>
+        <v>0.4557217953902146</v>
       </c>
       <c r="L37" t="n">
-        <v>11.9</v>
+        <v>0.3841463414634147</v>
       </c>
       <c r="M37" t="n">
-        <v>407.4</v>
+        <v>0.3324836125273124</v>
       </c>
       <c r="N37" t="n">
-        <v>37.3</v>
+        <v>1</v>
       </c>
       <c r="O37" t="n">
-        <v>50.7</v>
+        <v>0.3895131086142323</v>
       </c>
       <c r="P37" t="n">
-        <v>3318</v>
+        <v>0.306547619047619</v>
       </c>
       <c r="Q37" t="n">
-        <v>1087.8</v>
+        <v>0.0889340564756147</v>
       </c>
       <c r="R37" t="n">
-        <v>3.5</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="S37" t="n">
-        <v>861.2</v>
+        <v>0.1339681616631534</v>
       </c>
       <c r="T37" t="n">
-        <v>4.7</v>
+        <v>0.2333333333333334</v>
       </c>
       <c r="U37" t="n">
-        <v>3.68</v>
+        <v>0.4060150375939851</v>
       </c>
       <c r="V37" t="n">
-        <v>27.02</v>
+        <v>0.9556135770234988</v>
       </c>
       <c r="W37" t="n">
-        <v>15.43</v>
+        <v>0.4031496062992126</v>
       </c>
       <c r="X37" t="n">
         <v>35</v>
@@ -3301,67 +3301,67 @@
         <v>84.92</v>
       </c>
       <c r="C38" t="n">
-        <v>297.1</v>
+        <v>0.7428393524283936</v>
       </c>
       <c r="D38" t="n">
-        <v>12.9</v>
+        <v>0.2857142857142856</v>
       </c>
       <c r="E38" t="n">
-        <v>15.8</v>
+        <v>0.202020202020202</v>
       </c>
       <c r="F38" t="n">
-        <v>42.1</v>
+        <v>0.8321342925659472</v>
       </c>
       <c r="G38" t="n">
-        <v>1.3</v>
+        <v>0.5000000000000001</v>
       </c>
       <c r="H38" t="n">
-        <v>336.6</v>
+        <v>0.4224060822898033</v>
       </c>
       <c r="I38" t="n">
-        <v>1271.9</v>
+        <v>0.6062773566776983</v>
       </c>
       <c r="J38" t="n">
-        <v>173.5</v>
+        <v>0.3571428571428577</v>
       </c>
       <c r="K38" t="n">
-        <v>269.2</v>
+        <v>0.1188839466235341</v>
       </c>
       <c r="L38" t="n">
-        <v>18.2</v>
+        <v>0.7682926829268293</v>
       </c>
       <c r="M38" t="n">
-        <v>843.1</v>
+        <v>0.8613741199320224</v>
       </c>
       <c r="N38" t="n">
-        <v>6</v>
+        <v>0.04573170731707318</v>
       </c>
       <c r="O38" t="n">
-        <v>78</v>
+        <v>0.900749063670412</v>
       </c>
       <c r="P38" t="n">
-        <v>2667</v>
+        <v>0.09126984126984128</v>
       </c>
       <c r="Q38" t="n">
-        <v>528</v>
+        <v>0.03088218518941005</v>
       </c>
       <c r="R38" t="n">
-        <v>5.7</v>
+        <v>0.2</v>
       </c>
       <c r="S38" t="n">
-        <v>1185.9</v>
+        <v>0.3699934578759905</v>
       </c>
       <c r="T38" t="n">
-        <v>11.6</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="U38" t="n">
-        <v>3.97</v>
+        <v>0.4786967418546367</v>
       </c>
       <c r="V38" t="n">
-        <v>19.81</v>
+        <v>0.3281114012184507</v>
       </c>
       <c r="W38" t="n">
-        <v>11.87</v>
+        <v>0.1228346456692913</v>
       </c>
       <c r="X38" t="n">
         <v>36</v>
@@ -3377,67 +3377,67 @@
         <v>84.54000000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>219.4</v>
+        <v>0.2590286425902864</v>
       </c>
       <c r="D39" t="n">
-        <v>13.9</v>
+        <v>0.4642857142857144</v>
       </c>
       <c r="E39" t="n">
-        <v>19.5</v>
+        <v>0.3888888888888888</v>
       </c>
       <c r="F39" t="n">
-        <v>24.3</v>
+        <v>0.4052757793764988</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9</v>
+        <v>0.3000000000000001</v>
       </c>
       <c r="H39" t="n">
-        <v>180.4</v>
+        <v>0.07312164579606439</v>
       </c>
       <c r="I39" t="n">
-        <v>855.1</v>
+        <v>0.161310985374186</v>
       </c>
       <c r="J39" t="n">
-        <v>173</v>
+        <v>0.2857142857142847</v>
       </c>
       <c r="K39" t="n">
-        <v>300.05</v>
+        <v>0.3683784876668015</v>
       </c>
       <c r="L39" t="n">
-        <v>15.5</v>
+        <v>0.6036585365853659</v>
       </c>
       <c r="M39" t="n">
-        <v>373.1</v>
+        <v>0.2908472930322894</v>
       </c>
       <c r="N39" t="n">
-        <v>10.8</v>
+        <v>0.1920731707317074</v>
       </c>
       <c r="O39" t="n">
-        <v>62.8</v>
+        <v>0.6161048689138576</v>
       </c>
       <c r="P39" t="n">
-        <v>3432</v>
+        <v>0.3442460317460317</v>
       </c>
       <c r="Q39" t="n">
-        <v>1309.4</v>
+        <v>0.1119142184567204</v>
       </c>
       <c r="R39" t="n">
-        <v>3.9</v>
+        <v>0.06153846153846149</v>
       </c>
       <c r="S39" t="n">
-        <v>842.4</v>
+        <v>0.1203023915097768</v>
       </c>
       <c r="T39" t="n">
-        <v>4.8</v>
+        <v>0.2444444444444445</v>
       </c>
       <c r="U39" t="n">
-        <v>4.17</v>
+        <v>0.5288220551378446</v>
       </c>
       <c r="V39" t="n">
-        <v>21.17</v>
+        <v>0.4464751958224544</v>
       </c>
       <c r="W39" t="n">
-        <v>16.83</v>
+        <v>0.5133858267716533</v>
       </c>
       <c r="X39" t="n">
         <v>37</v>
@@ -3453,67 +3453,67 @@
         <v>83.95</v>
       </c>
       <c r="C40" t="n">
-        <v>236.9</v>
+        <v>0.3679950186799501</v>
       </c>
       <c r="D40" t="n">
-        <v>13.2</v>
+        <v>0.339285714285714</v>
       </c>
       <c r="E40" t="n">
-        <v>17.3</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="F40" t="n">
-        <v>8</v>
+        <v>0.01438848920863309</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9</v>
+        <v>0.3000000000000001</v>
       </c>
       <c r="H40" t="n">
-        <v>249.3</v>
+        <v>0.2271914132379249</v>
       </c>
       <c r="I40" t="n">
-        <v>921.6</v>
+        <v>0.2323049001814882</v>
       </c>
       <c r="J40" t="n">
-        <v>172.5</v>
+        <v>0.2142857142857153</v>
       </c>
       <c r="K40" t="n">
-        <v>300.75</v>
+        <v>0.3740396279822078</v>
       </c>
       <c r="L40" t="n">
-        <v>14.5</v>
+        <v>0.5426829268292683</v>
       </c>
       <c r="M40" t="n">
-        <v>486.9</v>
+        <v>0.4289876183539693</v>
       </c>
       <c r="N40" t="n">
-        <v>20.8</v>
+        <v>0.4969512195121952</v>
       </c>
       <c r="O40" t="n">
-        <v>52.9</v>
+        <v>0.4307116104868913</v>
       </c>
       <c r="P40" t="n">
-        <v>3479</v>
+        <v>0.3597883597883597</v>
       </c>
       <c r="Q40" t="n">
-        <v>643.3</v>
+        <v>0.04283892109383912</v>
       </c>
       <c r="R40" t="n">
-        <v>4.5</v>
+        <v>0.1076923076923076</v>
       </c>
       <c r="S40" t="n">
-        <v>896</v>
+        <v>0.1592643745002544</v>
       </c>
       <c r="T40" t="n">
-        <v>5.5</v>
+        <v>0.3222222222222222</v>
       </c>
       <c r="U40" t="n">
-        <v>4.21</v>
+        <v>0.5388471177944862</v>
       </c>
       <c r="V40" t="n">
-        <v>25.05</v>
+        <v>0.7841601392515232</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23</v>
+        <v>0.4661417322834644</v>
       </c>
       <c r="X40" t="n">
         <v>38</v>
@@ -3529,67 +3529,67 @@
         <v>84.34999999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>338.4</v>
+        <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>13.1</v>
+        <v>0.3214285714285712</v>
       </c>
       <c r="E41" t="n">
-        <v>19.2</v>
+        <v>0.3737373737373736</v>
       </c>
       <c r="F41" t="n">
-        <v>15.2</v>
+        <v>0.1870503597122302</v>
       </c>
       <c r="G41" t="n">
-        <v>2.1</v>
+        <v>0.9000000000000002</v>
       </c>
       <c r="H41" t="n">
-        <v>496.8</v>
+        <v>0.7806350626118068</v>
       </c>
       <c r="I41" t="n">
-        <v>1374.7</v>
+        <v>0.7160243407707912</v>
       </c>
       <c r="J41" t="n">
-        <v>172</v>
+        <v>0.1428571428571423</v>
       </c>
       <c r="K41" t="n">
-        <v>282.95</v>
+        <v>0.230084917104731</v>
       </c>
       <c r="L41" t="n">
-        <v>16.4</v>
+        <v>0.6585365853658536</v>
       </c>
       <c r="M41" t="n">
-        <v>498.6</v>
+        <v>0.4431900946831756</v>
       </c>
       <c r="N41" t="n">
-        <v>9.300000000000001</v>
+        <v>0.1463414634146342</v>
       </c>
       <c r="O41" t="n">
-        <v>75.40000000000001</v>
+        <v>0.852059925093633</v>
       </c>
       <c r="P41" t="n">
-        <v>3092</v>
+        <v>0.2318121693121692</v>
       </c>
       <c r="Q41" t="n">
-        <v>708.2</v>
+        <v>0.04956912196285428</v>
       </c>
       <c r="R41" t="n">
-        <v>12.8</v>
+        <v>0.7461538461538462</v>
       </c>
       <c r="S41" t="n">
-        <v>1440.7</v>
+        <v>0.5552082576143056</v>
       </c>
       <c r="T41" t="n">
-        <v>7.4</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="U41" t="n">
-        <v>5</v>
+        <v>0.736842105263158</v>
       </c>
       <c r="V41" t="n">
-        <v>17.41</v>
+        <v>0.1192341166231508</v>
       </c>
       <c r="W41" t="n">
-        <v>13.38</v>
+        <v>0.241732283464567</v>
       </c>
       <c r="X41" t="n">
         <v>39</v>
@@ -3605,67 +3605,67 @@
         <v>84.81999999999999</v>
       </c>
       <c r="C42" t="n">
-        <v>320.9</v>
+        <v>0.8910336239103362</v>
       </c>
       <c r="D42" t="n">
-        <v>12.8</v>
+        <v>0.2678571428571428</v>
       </c>
       <c r="E42" t="n">
-        <v>31.6</v>
+        <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>8</v>
+        <v>0.01438848920863309</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="H42" t="n">
-        <v>154.3</v>
+        <v>0.01475849731663686</v>
       </c>
       <c r="I42" t="n">
-        <v>780.7</v>
+        <v>0.08188320700330953</v>
       </c>
       <c r="J42" t="n">
-        <v>171.5</v>
+        <v>0.07142857142857295</v>
       </c>
       <c r="K42" t="n">
-        <v>378.15</v>
+        <v>1</v>
       </c>
       <c r="L42" t="n">
-        <v>5.6</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>155</v>
+        <v>0.02609856761349841</v>
       </c>
       <c r="N42" t="n">
-        <v>36.4</v>
+        <v>0.9725609756097562</v>
       </c>
       <c r="O42" t="n">
-        <v>34.7</v>
+        <v>0.0898876404494382</v>
       </c>
       <c r="P42" t="n">
-        <v>5415</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Q42" t="n">
-        <v>9873.299999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="R42" t="n">
-        <v>4.2</v>
+        <v>0.08461538461538459</v>
       </c>
       <c r="S42" t="n">
-        <v>807.7</v>
+        <v>0.09507886893944906</v>
       </c>
       <c r="T42" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>3.32</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="V42" t="n">
-        <v>16.76</v>
+        <v>0.06266318537859039</v>
       </c>
       <c r="W42" t="n">
-        <v>14.47</v>
+        <v>0.3275590551181102</v>
       </c>
       <c r="X42" t="n">
         <v>40</v>
@@ -3681,67 +3681,67 @@
         <v>84.63</v>
       </c>
       <c r="C43" t="n">
-        <v>314.8</v>
+        <v>0.8530510585305107</v>
       </c>
       <c r="D43" t="n">
-        <v>13.4</v>
+        <v>0.375</v>
       </c>
       <c r="E43" t="n">
-        <v>16.6</v>
+        <v>0.2424242424242424</v>
       </c>
       <c r="F43" t="n">
-        <v>33.3</v>
+        <v>0.6211031175059951</v>
       </c>
       <c r="G43" t="n">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="H43" t="n">
-        <v>320.6</v>
+        <v>0.3866279069767443</v>
       </c>
       <c r="I43" t="n">
-        <v>1341</v>
+        <v>0.6800469734173161</v>
       </c>
       <c r="J43" t="n">
-        <v>173</v>
+        <v>0.2857142857142847</v>
       </c>
       <c r="K43" t="n">
-        <v>267.5</v>
+        <v>0.1051354630004044</v>
       </c>
       <c r="L43" t="n">
-        <v>13</v>
+        <v>0.451219512195122</v>
       </c>
       <c r="M43" t="n">
-        <v>957.3</v>
+        <v>1</v>
       </c>
       <c r="N43" t="n">
-        <v>14</v>
+        <v>0.2896341463414634</v>
       </c>
       <c r="O43" t="n">
-        <v>73.40000000000001</v>
+        <v>0.8146067415730339</v>
       </c>
       <c r="P43" t="n">
-        <v>2515</v>
+        <v>0.04100529100529104</v>
       </c>
       <c r="Q43" t="n">
-        <v>611.9</v>
+        <v>0.03958270680590267</v>
       </c>
       <c r="R43" t="n">
-        <v>7</v>
+        <v>0.3</v>
       </c>
       <c r="S43" t="n">
-        <v>1372.9</v>
+        <v>0.5059242567420223</v>
       </c>
       <c r="T43" t="n">
-        <v>6</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="U43" t="n">
-        <v>3.61</v>
+        <v>0.3884711779448622</v>
       </c>
       <c r="V43" t="n">
-        <v>19.09</v>
+        <v>0.2654482158398608</v>
       </c>
       <c r="W43" t="n">
-        <v>13.63</v>
+        <v>0.2614173228346457</v>
       </c>
       <c r="X43" t="n">
         <v>41</v>
@@ -3757,67 +3757,67 @@
         <v>84.86</v>
       </c>
       <c r="C44" t="n">
-        <v>261.5</v>
+        <v>0.521170610211706</v>
       </c>
       <c r="D44" t="n">
-        <v>15.7</v>
+        <v>0.7857142857142856</v>
       </c>
       <c r="E44" t="n">
-        <v>19.8</v>
+        <v>0.404040404040404</v>
       </c>
       <c r="F44" t="n">
-        <v>20.7</v>
+        <v>0.3189448441247002</v>
       </c>
       <c r="G44" t="n">
-        <v>1.8</v>
+        <v>0.7500000000000002</v>
       </c>
       <c r="H44" t="n">
-        <v>299</v>
+        <v>0.3383273703041145</v>
       </c>
       <c r="I44" t="n">
-        <v>1164.4</v>
+        <v>0.4915127575531121</v>
       </c>
       <c r="J44" t="n">
-        <v>173</v>
+        <v>0.2857142857142847</v>
       </c>
       <c r="K44" t="n">
-        <v>300.35</v>
+        <v>0.3708046906591185</v>
       </c>
       <c r="L44" t="n">
-        <v>14.2</v>
+        <v>0.524390243902439</v>
       </c>
       <c r="M44" t="n">
-        <v>652.4</v>
+        <v>0.62988589463462</v>
       </c>
       <c r="N44" t="n">
-        <v>29.6</v>
+        <v>0.7652439024390245</v>
       </c>
       <c r="O44" t="n">
-        <v>56.6</v>
+        <v>0.5000000000000001</v>
       </c>
       <c r="P44" t="n">
-        <v>3398</v>
+        <v>0.3330026455026455</v>
       </c>
       <c r="Q44" t="n">
-        <v>561.7</v>
+        <v>0.03437691198888326</v>
       </c>
       <c r="R44" t="n">
-        <v>8.4</v>
+        <v>0.4076923076923076</v>
       </c>
       <c r="S44" t="n">
-        <v>1232.7</v>
+        <v>0.4040125027258851</v>
       </c>
       <c r="T44" t="n">
-        <v>6.2</v>
+        <v>0.4</v>
       </c>
       <c r="U44" t="n">
-        <v>3.03</v>
+        <v>0.2431077694235589</v>
       </c>
       <c r="V44" t="n">
-        <v>22.56</v>
+        <v>0.5674499564838988</v>
       </c>
       <c r="W44" t="n">
-        <v>13.28</v>
+        <v>0.2338582677165353</v>
       </c>
       <c r="X44" t="n">
         <v>42</v>
@@ -3833,67 +3833,67 @@
         <v>84.2</v>
       </c>
       <c r="C45" t="n">
-        <v>307.8</v>
+        <v>0.8094645080946452</v>
       </c>
       <c r="D45" t="n">
-        <v>12.9</v>
+        <v>0.2857142857142856</v>
       </c>
       <c r="E45" t="n">
-        <v>16.3</v>
+        <v>0.2272727272727272</v>
       </c>
       <c r="F45" t="n">
-        <v>21.3</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9</v>
+        <v>0.3000000000000001</v>
       </c>
       <c r="H45" t="n">
-        <v>222</v>
+        <v>0.1661449016100179</v>
       </c>
       <c r="I45" t="n">
-        <v>1171.8</v>
+        <v>0.4994128322835486</v>
       </c>
       <c r="J45" t="n">
-        <v>175</v>
+        <v>0.571428571428573</v>
       </c>
       <c r="K45" t="n">
-        <v>289.55</v>
+        <v>0.2834613829357058</v>
       </c>
       <c r="L45" t="n">
-        <v>16</v>
+        <v>0.6341463414634148</v>
       </c>
       <c r="M45" t="n">
-        <v>469.1</v>
+        <v>0.4073804321437243</v>
       </c>
       <c r="N45" t="n">
-        <v>12.6</v>
+        <v>0.2469512195121951</v>
       </c>
       <c r="O45" t="n">
-        <v>76.2</v>
+        <v>0.8670411985018728</v>
       </c>
       <c r="P45" t="n">
-        <v>2913</v>
+        <v>0.1726190476190476</v>
       </c>
       <c r="Q45" t="n">
-        <v>821.3</v>
+        <v>0.06129771546494385</v>
       </c>
       <c r="R45" t="n">
-        <v>8.1</v>
+        <v>0.3846153846153845</v>
       </c>
       <c r="S45" t="n">
-        <v>1227.2</v>
+        <v>0.4000145380533547</v>
       </c>
       <c r="T45" t="n">
-        <v>9.1</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="U45" t="n">
-        <v>2.33</v>
+        <v>0.06766917293233088</v>
       </c>
       <c r="V45" t="n">
-        <v>19.84</v>
+        <v>0.3307223672758921</v>
       </c>
       <c r="W45" t="n">
-        <v>14.37</v>
+        <v>0.3196850393700787</v>
       </c>
       <c r="X45" t="n">
         <v>43</v>
@@ -3909,67 +3909,67 @@
         <v>84.39</v>
       </c>
       <c r="C46" t="n">
-        <v>229.2</v>
+        <v>0.3200498132004981</v>
       </c>
       <c r="D46" t="n">
-        <v>12.2</v>
+        <v>0.1607142857142856</v>
       </c>
       <c r="E46" t="n">
-        <v>13.7</v>
+        <v>0.0959595959595958</v>
       </c>
       <c r="F46" t="n">
-        <v>49.1</v>
+        <v>1</v>
       </c>
       <c r="G46" t="n">
-        <v>1.3</v>
+        <v>0.5000000000000001</v>
       </c>
       <c r="H46" t="n">
-        <v>326.9</v>
+        <v>0.4007155635062611</v>
       </c>
       <c r="I46" t="n">
-        <v>1045.1</v>
+        <v>0.3641507419664779</v>
       </c>
       <c r="J46" t="n">
-        <v>173</v>
+        <v>0.2857142857142847</v>
       </c>
       <c r="K46" t="n">
-        <v>260.9</v>
+        <v>0.05175899716942967</v>
       </c>
       <c r="L46" t="n">
-        <v>16.7</v>
+        <v>0.6768292682926829</v>
       </c>
       <c r="M46" t="n">
-        <v>590.7</v>
+        <v>0.5549890750182083</v>
       </c>
       <c r="N46" t="n">
-        <v>16.7</v>
+        <v>0.3719512195121951</v>
       </c>
       <c r="O46" t="n">
-        <v>69</v>
+        <v>0.7322097378277154</v>
       </c>
       <c r="P46" t="n">
-        <v>2897</v>
+        <v>0.1673280423280423</v>
       </c>
       <c r="Q46" t="n">
-        <v>371.7</v>
+        <v>0.01467370451410854</v>
       </c>
       <c r="R46" t="n">
-        <v>5</v>
+        <v>0.1461538461538461</v>
       </c>
       <c r="S46" t="n">
-        <v>1051.7</v>
+        <v>0.27244311986625</v>
       </c>
       <c r="T46" t="n">
-        <v>7.4</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="U46" t="n">
-        <v>5.47</v>
+        <v>0.8546365914786969</v>
       </c>
       <c r="V46" t="n">
-        <v>19.28</v>
+        <v>0.2819843342036554</v>
       </c>
       <c r="W46" t="n">
-        <v>13.18</v>
+        <v>0.2259842519685038</v>
       </c>
       <c r="X46" t="n">
         <v>44</v>
@@ -3985,67 +3985,67 @@
         <v>84.28</v>
       </c>
       <c r="C47" t="n">
-        <v>260.1</v>
+        <v>0.5124533001245331</v>
       </c>
       <c r="D47" t="n">
-        <v>13.5</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="E47" t="n">
-        <v>16.9</v>
+        <v>0.2575757575757575</v>
       </c>
       <c r="F47" t="n">
-        <v>19.3</v>
+        <v>0.2853717026378897</v>
       </c>
       <c r="G47" t="n">
-        <v>2.1</v>
+        <v>0.9000000000000002</v>
       </c>
       <c r="H47" t="n">
-        <v>435.5</v>
+        <v>0.6435599284436493</v>
       </c>
       <c r="I47" t="n">
-        <v>1404.1</v>
+        <v>0.7474111241592826</v>
       </c>
       <c r="J47" t="n">
-        <v>174</v>
+        <v>0.428571428571427</v>
       </c>
       <c r="K47" t="n">
-        <v>292.1</v>
+        <v>0.3040841083704002</v>
       </c>
       <c r="L47" t="n">
-        <v>12.5</v>
+        <v>0.4207317073170733</v>
       </c>
       <c r="M47" t="n">
-        <v>535.4</v>
+        <v>0.4878611313425589</v>
       </c>
       <c r="N47" t="n">
-        <v>7</v>
+        <v>0.07621951219512196</v>
       </c>
       <c r="O47" t="n">
-        <v>71.40000000000001</v>
+        <v>0.7771535580524346</v>
       </c>
       <c r="P47" t="n">
-        <v>3199</v>
+        <v>0.2671957671957671</v>
       </c>
       <c r="Q47" t="n">
-        <v>782.5</v>
+        <v>0.05727411309641091</v>
       </c>
       <c r="R47" t="n">
-        <v>8.5</v>
+        <v>0.4153846153846153</v>
       </c>
       <c r="S47" t="n">
-        <v>1430.5</v>
+        <v>0.547793850403431</v>
       </c>
       <c r="T47" t="n">
-        <v>6.9</v>
+        <v>0.4777777777777779</v>
       </c>
       <c r="U47" t="n">
-        <v>3.21</v>
+        <v>0.2882205513784462</v>
       </c>
       <c r="V47" t="n">
-        <v>23.56</v>
+        <v>0.6544821583986073</v>
       </c>
       <c r="W47" t="n">
-        <v>15.21</v>
+        <v>0.3858267716535433</v>
       </c>
       <c r="X47" t="n">
         <v>45</v>
@@ -4061,67 +4061,67 @@
         <v>84.83</v>
       </c>
       <c r="C48" t="n">
-        <v>250.1</v>
+        <v>0.4501867995018678</v>
       </c>
       <c r="D48" t="n">
-        <v>15.9</v>
+        <v>0.8214285714285716</v>
       </c>
       <c r="E48" t="n">
-        <v>19.9</v>
+        <v>0.4090909090909089</v>
       </c>
       <c r="F48" t="n">
-        <v>34.6</v>
+        <v>0.6522781774580336</v>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>0.3500000000000001</v>
       </c>
       <c r="H48" t="n">
-        <v>280.6</v>
+        <v>0.2971824686940966</v>
       </c>
       <c r="I48" t="n">
-        <v>975.2</v>
+        <v>0.2895270630938401</v>
       </c>
       <c r="J48" t="n">
-        <v>174</v>
+        <v>0.428571428571427</v>
       </c>
       <c r="K48" t="n">
-        <v>295</v>
+        <v>0.3275374039627983</v>
       </c>
       <c r="L48" t="n">
-        <v>12.4</v>
+        <v>0.4146341463414635</v>
       </c>
       <c r="M48" t="n">
-        <v>754</v>
+        <v>0.7532168001942219</v>
       </c>
       <c r="N48" t="n">
-        <v>27.1</v>
+        <v>0.6890243902439025</v>
       </c>
       <c r="O48" t="n">
-        <v>77.8</v>
+        <v>0.897003745318352</v>
       </c>
       <c r="P48" t="n">
-        <v>3160</v>
+        <v>0.2542989417989417</v>
       </c>
       <c r="Q48" t="n">
-        <v>849.8</v>
+        <v>0.06425319658616005</v>
       </c>
       <c r="R48" t="n">
-        <v>6.4</v>
+        <v>0.2538461538461538</v>
       </c>
       <c r="S48" t="n">
-        <v>1080.8</v>
+        <v>0.2935959874972741</v>
       </c>
       <c r="T48" t="n">
-        <v>8</v>
+        <v>0.6</v>
       </c>
       <c r="U48" t="n">
-        <v>3.2</v>
+        <v>0.2857142857142858</v>
       </c>
       <c r="V48" t="n">
-        <v>20.87</v>
+        <v>0.420365535248042</v>
       </c>
       <c r="W48" t="n">
-        <v>12.34</v>
+        <v>0.1598425196850394</v>
       </c>
       <c r="X48" t="n">
         <v>46</v>

--- a/data/processed/Cleaned_Japan_Life_Expectancy.xlsx
+++ b/data/processed/Cleaned_Japan_Life_Expectancy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X48"/>
+  <dimension ref="A1:Y48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -554,6 +554,11 @@
           <t>Prefecture_encoded</t>
         </is>
       </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Socioeconomic_index</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -630,6 +635,9 @@
       <c r="X2" t="n">
         <v>0</v>
       </c>
+      <c r="Y2" t="n">
+        <v>0.3455254492900617</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -706,6 +714,9 @@
       <c r="X3" t="n">
         <v>1</v>
       </c>
+      <c r="Y3" t="n">
+        <v>-0.4339570103379418</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -782,6 +793,9 @@
       <c r="X4" t="n">
         <v>2</v>
       </c>
+      <c r="Y4" t="n">
+        <v>-0.4526751429247473</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -858,6 +872,9 @@
       <c r="X5" t="n">
         <v>3</v>
       </c>
+      <c r="Y5" t="n">
+        <v>0.3671432313030841</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -934,6 +951,9 @@
       <c r="X6" t="n">
         <v>4</v>
       </c>
+      <c r="Y6" t="n">
+        <v>-0.1212000113841918</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1010,6 +1030,9 @@
       <c r="X7" t="n">
         <v>5</v>
       </c>
+      <c r="Y7" t="n">
+        <v>-0.01860844963734443</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1086,6 +1109,9 @@
       <c r="X8" t="n">
         <v>6</v>
       </c>
+      <c r="Y8" t="n">
+        <v>0.08294353775117436</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1162,6 +1188,9 @@
       <c r="X9" t="n">
         <v>7</v>
       </c>
+      <c r="Y9" t="n">
+        <v>-0.2892606039532199</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1238,6 +1267,9 @@
       <c r="X10" t="n">
         <v>8</v>
       </c>
+      <c r="Y10" t="n">
+        <v>0.01048641623631552</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1314,6 +1346,9 @@
       <c r="X11" t="n">
         <v>9</v>
       </c>
+      <c r="Y11" t="n">
+        <v>-0.02004938770412479</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1390,6 +1425,9 @@
       <c r="X12" t="n">
         <v>10</v>
       </c>
+      <c r="Y12" t="n">
+        <v>0.2337494616669398</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1466,6 +1504,9 @@
       <c r="X13" t="n">
         <v>11</v>
       </c>
+      <c r="Y13" t="n">
+        <v>-0.2057672496386396</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1542,6 +1583,9 @@
       <c r="X14" t="n">
         <v>12</v>
       </c>
+      <c r="Y14" t="n">
+        <v>0.3540764170905675</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1618,6 +1662,9 @@
       <c r="X15" t="n">
         <v>13</v>
       </c>
+      <c r="Y15" t="n">
+        <v>0.07767704679645382</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1694,6 +1741,9 @@
       <c r="X16" t="n">
         <v>14</v>
       </c>
+      <c r="Y16" t="n">
+        <v>0.06121208484154694</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1770,6 +1820,9 @@
       <c r="X17" t="n">
         <v>15</v>
       </c>
+      <c r="Y17" t="n">
+        <v>-0.4123522490434681</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1846,6 +1899,9 @@
       <c r="X18" t="n">
         <v>16</v>
       </c>
+      <c r="Y18" t="n">
+        <v>0.08322296241857974</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1922,6 +1978,9 @@
       <c r="X19" t="n">
         <v>17</v>
       </c>
+      <c r="Y19" t="n">
+        <v>-0.312608253848642</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1998,6 +2057,9 @@
       <c r="X20" t="n">
         <v>18</v>
       </c>
+      <c r="Y20" t="n">
+        <v>0.694893460133756</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2074,6 +2136,9 @@
       <c r="X21" t="n">
         <v>19</v>
       </c>
+      <c r="Y21" t="n">
+        <v>-0.277766171996744</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2150,6 +2215,9 @@
       <c r="X22" t="n">
         <v>20</v>
       </c>
+      <c r="Y22" t="n">
+        <v>-0.1668770256796987</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2226,6 +2294,9 @@
       <c r="X23" t="n">
         <v>21</v>
       </c>
+      <c r="Y23" t="n">
+        <v>0.3681129494945612</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2302,6 +2373,9 @@
       <c r="X24" t="n">
         <v>22</v>
       </c>
+      <c r="Y24" t="n">
+        <v>0.04876570798625002</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2378,6 +2452,9 @@
       <c r="X25" t="n">
         <v>23</v>
       </c>
+      <c r="Y25" t="n">
+        <v>-0.001038809731365054</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2454,6 +2531,9 @@
       <c r="X26" t="n">
         <v>24</v>
       </c>
+      <c r="Y26" t="n">
+        <v>-0.3721690674958914</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2530,6 +2610,9 @@
       <c r="X27" t="n">
         <v>25</v>
       </c>
+      <c r="Y27" t="n">
+        <v>-0.01616699936788246</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2606,6 +2689,9 @@
       <c r="X28" t="n">
         <v>26</v>
       </c>
+      <c r="Y28" t="n">
+        <v>-0.2787050961770162</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2682,6 +2768,9 @@
       <c r="X29" t="n">
         <v>27</v>
       </c>
+      <c r="Y29" t="n">
+        <v>0.3843718585192488</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2758,6 +2847,9 @@
       <c r="X30" t="n">
         <v>28</v>
       </c>
+      <c r="Y30" t="n">
+        <v>-0.2760280359699026</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2834,6 +2926,9 @@
       <c r="X31" t="n">
         <v>29</v>
       </c>
+      <c r="Y31" t="n">
+        <v>-0.191399209693045</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2910,6 +3005,9 @@
       <c r="X32" t="n">
         <v>30</v>
       </c>
+      <c r="Y32" t="n">
+        <v>0.06616008897321557</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2986,6 +3084,9 @@
       <c r="X33" t="n">
         <v>31</v>
       </c>
+      <c r="Y33" t="n">
+        <v>-0.2447498556311948</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3062,6 +3163,9 @@
       <c r="X34" t="n">
         <v>32</v>
       </c>
+      <c r="Y34" t="n">
+        <v>0.3143609398479589</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3138,6 +3242,9 @@
       <c r="X35" t="n">
         <v>33</v>
       </c>
+      <c r="Y35" t="n">
+        <v>-0.2232409919406703</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3214,6 +3321,9 @@
       <c r="X36" t="n">
         <v>34</v>
       </c>
+      <c r="Y36" t="n">
+        <v>0.3046389534998648</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3290,6 +3400,9 @@
       <c r="X37" t="n">
         <v>35</v>
       </c>
+      <c r="Y37" t="n">
+        <v>0.2503103212257962</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3366,6 +3479,9 @@
       <c r="X38" t="n">
         <v>36</v>
       </c>
+      <c r="Y38" t="n">
+        <v>-0.2223719239272494</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3442,6 +3558,9 @@
       <c r="X39" t="n">
         <v>37</v>
       </c>
+      <c r="Y39" t="n">
+        <v>0.08258123619836899</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3518,6 +3637,9 @@
       <c r="X40" t="n">
         <v>38</v>
       </c>
+      <c r="Y40" t="n">
+        <v>0.002721639563830758</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3594,6 +3716,9 @@
       <c r="X41" t="n">
         <v>39</v>
       </c>
+      <c r="Y41" t="n">
+        <v>-0.01992744866307816</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3670,6 +3795,9 @@
       <c r="X42" t="n">
         <v>40</v>
       </c>
+      <c r="Y42" t="n">
+        <v>0.9584450898641199</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3746,6 +3874,9 @@
       <c r="X43" t="n">
         <v>41</v>
       </c>
+      <c r="Y43" t="n">
+        <v>-0.2010335665816321</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3822,6 +3953,9 @@
       <c r="X44" t="n">
         <v>42</v>
       </c>
+      <c r="Y44" t="n">
+        <v>0.09557819424403458</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3898,6 +4032,9 @@
       <c r="X45" t="n">
         <v>43</v>
       </c>
+      <c r="Y45" t="n">
+        <v>-0.09494795948844575</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3974,6 +4111,9 @@
       <c r="X46" t="n">
         <v>44</v>
       </c>
+      <c r="Y46" t="n">
+        <v>-0.3463847199051141</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4050,6 +4190,9 @@
       <c r="X47" t="n">
         <v>45</v>
       </c>
+      <c r="Y47" t="n">
+        <v>-0.05856428939171143</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4125,6 +4268,9 @@
       </c>
       <c r="X48" t="n">
         <v>46</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>0.07087248316723216</v>
       </c>
     </row>
   </sheetData>
